--- a/teste.xlsx
+++ b/teste.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="260">
   <si>
     <t>Nome.Produto</t>
   </si>
@@ -40,31 +40,754 @@
     <t>Link.Produto</t>
   </si>
   <si>
+    <t>Link.Loja</t>
+  </si>
+  <si>
     <t>Promocao</t>
   </si>
   <si>
     <t>Top.Selling</t>
   </si>
   <si>
-    <t xml:space="preserve">8gb 10.1 gb 128 mah widevine l1 13mp 8mp câmera octa núcleo tablet android 12 pad almofada de oscal 10 6580 o </t>
-  </si>
-  <si>
-    <t>{'R$2.221'}</t>
+    <t xml:space="preserve">Xiaomi almofada 5 rom global snapdragon 860 11 wwwqhd + 120hz display 4 alto-falantes estéreo 8720mah mi tablet 5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xiaomi mi almofada 5 128gb/256gb comprimidos 5 snapdragon 860 cpu 8720mah bateria 11 camera 2.5k tela tablet 13mp câmera </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xiaomi Tablet Mi Pad 5 Versão Global, SnapDragon 860, Tela WQHD+ de 11" e 120 Hz, Alto-falantes Quad Estéreo, Bateria de 8720 mAh, 128Gb ou 256GB </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rom global xiaomi almofada 5 comprimidos snapdragon 860 octa núcleo 128gb/256gb 13mp câmera 11 screen 2.5k tela 8720mah mi tablet 5 cn versão </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022 nova versão global tablet android 11.0 almofada 5 pro 12gb + 512gb snapdragon 845 comprimidos pc 5g duplo cartão sim ou wifi hd 4k mi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global firmware xiaomi mi pad 5 android tablet 11 "tela 120hz 4 alto-falantes google play qualcomm 860 dolby visão 8720mah bateria </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xiaomi mi almofada 5 pro 12.4 tablets tablets comprimidos 128gb/512gb snapdragon 870 cpu 120hz 2.5k tela 10000mah bateria 50mp câmera mipad 5 pro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xiaomi mi almofada 5 pro 128gb/256gb tablet snapdragon 870 cpu 11 cpu screen 2.5k tela 5 pro comprimidos 8600mah bateria 67w carga </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Em estoque global rom xiaomi mi pad 5 pro wifi 128gb/256gb tablet snapdragon 870 comprimidos 5 pro 2.5k tela 67w de carregamento 8600mah </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xiaomi redmi almofada versão global mi almofada mediatek helio g99 10.61 "2k display 8000mah carregamento rápido redmi tablet vs mi tablet 5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Versão global xiaomi almofada 5 6gb + 128gb/6gb + 256gb 11 wwqhd + 120hz exibição snapdragon 860 4 alto-falantes estéreo 8720mah mi tablet 5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rom global xiaomi mi pad 5 128gb/256gb snapdragon 860 cpu comprimidos 5 11 11 2.5k tela tablet 13mp 8720mah bateria cn versão </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xiaomi mi almofada 5 pro 12.4 8gb + 256gb tablet snapdragon 870 cpu 120hz tela 10000mah 2560*1600 244ppi 500nit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xiaomi mi pad 5 pro 6gb 128gb/256gb tablet snapdragon 870 comprimidos 5 pro 11 11 2.5k tela 67w carregamento 8600mah bateria </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Almofada xiaomi 5 tablet snapdragon 860 11 polegada 120hz display 4 alto-falantes estéreo 8720mah mipad 5 rom global 128/256gb comprimidos pc </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xiaomi mi almofada 5 pro 5g 8gb 256gb snapdragon 870 tablet 11 tablets tablets 2.5k tela câmera 50mp comprimidos 5 pro 5g 8600mah bateria 67w carga </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global rom xiaomi mi pad 5 pro 128gb/256gb tablet snapdragon 870 cpu comprimidos 5 pro 11 11 2.5k tela 8600mah bateria 67w carregamento </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Versão global original mi pad 5 pro globale versão android tablet snapdragon 865 tabletten pc 5g duplo sim karte oder wifi gps </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xiaomi tablet 5 pro 11 Polegada 2.5k 120hz tela lcd snapdragon 870 octa núcleo tablet pc 6gb 128gb 8600mah bateria android 11 mi almofada </t>
+  </si>
+  <si>
+    <t xml:space="preserve">China versão xiaomi redmi almofada mi tablet 5 android 64gb/128gb mediatek helio g99 90hz 10.61 "2k display 8000mah bateria comprimidos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xiaomi mi pad 5 pro 12.4 'comprimidos de 128gb/512gb snapdragon 870 cpu 120hz 2.5k tela de 10000mah bateria 50mp câmera mipad 5 pro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Versão global xiaomi mi pad 5 wifi 6gb 128/256gb snapdragon 860 cpu comprimidos 5 11 11 2.5k tela tablet 13mp 8720mah bateria </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 peças película protetora para xiaomi almofada 5/xiaomi almofada 5 pro 11 polegada com câmera de vidro temperado mi almofada 5 pro protetor de tela </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global rom xiaomi almofada 5 128gb/256gb rom snapdragon 860 cpu comprimidos 11 tablet tablet 2.5k tela tablet 13mp câmera 8720mah bateria mipad 5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xiaomi mi almofada tablet 5 pro 11 Polegada snapdragon 870 2.5k lcd 120hz tela 8g ram 256g rom 8600mah wifi6 5g sim slot para cartão miui13 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xiaomi mi almofada 5 pro 11 Polegada 2.5k lcd 120hz tela snapdragon 870 6g/8g ram 128g/256g rom 8600mah wifi6 mi tablet 5 pro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edição global xiaomi tablet pad 5 android 11 miui 12.5 snapdragon 860 6gb + 128/256gb 120hz 2.5k 11 polegada tela lcd mi tablet 5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022 nova versão global tablet android 11.0 12gb + 512gb snapdragon 845 comprimidos pc 5g cartão sim duplo ou wifi hd 4k mi almofada 5 pro tab </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Original xiaomi tablet 5 pro 11 "mi pad 5 pro m870 6g + 128g estudo/escritório/jogos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snapmi ui 13 xixiao mi mi almofada 5 pro 11 Polegada 2.5k lcd 120hz tela snapdragon 870 6g/8g ram 128g/256g rom 8600mah wifi6 mi tablet 5 pro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xiaomi mi almofada 5 128gb/256gb rom snapdragon 860 cpu comprimidos 5 11 11 tablet 2.5k tela tablet 13mp câmera 8720mah bateria mipad 5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xiaomi mi almofada 5 snapdragon 860 128gb/256gb rom comprimidos 5 11 Polegada 2.5k tela tablet 13mp câmera 8720mah bateria mipad 5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022 nova versão global tablet android 11.0 pad 5 pro 12gb + 512gb snapdragon 845 comprimidos pc 5g dual sim card ou wi-fi hd 4k mi tab </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global rom xiaomi mi pad 5 128gb/256gb snapdragon 860 comprimidos cpu 5 11 ''tela tablet 13mp 2.5k câmera 8720mah bateria mipad 5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xiaomi mi almofada 5 pro 256gb/128gb tablet snapdragon 870 cpu 11 cpu 2.5k tela 8600mah bateria 67w carregamento 5pro comprimidos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nova xiaomi pad 5 pro 12.4 ''tela grande tablet pc snapdragon 870 núcleo octa 120hz 2.5k 10000mah bateria 50mp câmera mi pad 5pro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global rom xiaomi pad 5 pro 8gb 256gb / 6gb 128gb wifi versão tablet snapdragon 870 cpu 11 cpu 2.5k tela 8600mah mi comprimidos 5pro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xiaomi mi almofada 5 pro 5g 8gb 256gb snapdragon 870 cpu tablet 11 tablets tablets 2.5k tela comprimidos 5 pro 5g 8600mah bateria 67w carregamento </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xiaomi mi pad 5 pro 128gb/256gb tablet snapdragon 870 cpu comprimidos 5 pro 11 11 2.5k tela 8600mah bateria 67w de carregamento </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Firmware global xiaomi mi almofada 5 6gb + 128gb wqhd 120hz 11 "tela android tablet 4 alto-falantes estéreo 8720mah bateria google play </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rom global xiaomi almofada 5 pro 6gb 128gb/256gb comprimidos snapdragon 870 mi tablet 5 pro 8600mah bateria 11 version 2.5k tela cn versão </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022 nova versão global tablet android 11.0 almofada 5 pro 12gb + 512gb snapdragon 845 comprimidos pc 5g cartão sim duplo ou wifi hd 4k mi tab </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Versão global xiaomi almofada 5 mi tablet 6g 128g/256g snapdragon 860 120hz 11 polegada wqhd + 2.5k display lcd 22.5w carregador rápido 8720mah </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022 xiaomi redmi pad versão global mi tablet 5 android 128gb mediatek helio g99 90hz 10.61 "2k display 8000mah bateria comprimidos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Versão global xiaomi almofada 5 128gb/256gb 11 wwwqhd + 120hz exibição snapdragon 860 4 alto-falantes estéreo 8720mah mi tablet 5 portátil 5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022 New Global Version Tablet Android 11.0 Pad 5 Pro 12GB+512GB Snapdragon 845 Tablets PC 5G Dual SIM Card or WIFI HD 4K Mi Tab </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global rom xiaomi mi pad 5 wifi versão google play tablet snapdragon 860 256gb/128gb 120hz 11 "wqhd + 2.5k display lcd 8720mah </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global rom xiaomi mi pad 5 128gb/256gb rom snapdragon 860 cpu comprimidos 5 11 11 2.5k tela tablet 13mp câmera 8720mah bateria </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xiaomi tablet 5 android tablet xiaomi original snapdragon 860 6gb ram phablet 11 "mi almofada 5 6g + 128g estudo/escritório/jogos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xiaomi almofada 5 pro 2022 12.4 snaptablet grande tela tablet pc snapdragon 870 octa núcleo 120hz 2.5k 10000mah 50mp câmera mi almofada 5 pro miui 13 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xiaomi almofada 5 pro 8gb 256gb 5g tablet snapdragon 870 cpu 2.5k 11 tablets tela mi comprimidos 5pro 8600mah 67w carregamento wifi sim versão </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global rom xiaomi mi pad 5 pro 128gb/256gb tablet snapdragon 870 comprimidos 5 pro 11 11 2.5k tela 67w carregamento 8600mah cn versão </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xiaomi almofada 5 11 wwwqhd + 120hz exibição snapdragon 860 4 alto-falantes estéreo 8720mah mi tablet 5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xiaomi mi almofada 5 pro 5g 8gb 256gb tablet snapdragon 870 cpu comprimidos 5 pro 5g 11 screen 2.5k tela 8600mah bateria 67w carregamento </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tabuleta dupla da chamada do cartão do sim do pc 5g do tabletten com gps de wifi a almofada 5 pro 5g global da tabuleta android11.0 snapdragon 865 da versão </t>
+  </si>
+  <si>
+    <t>{'R$1.575,51'}</t>
+  </si>
+  <si>
+    <t>{'R$1.581,05'}</t>
+  </si>
+  <si>
+    <t>{'R$1.809,25'}</t>
+  </si>
+  <si>
+    <t>{'R$640,39'}</t>
+  </si>
+  <si>
+    <t>{'R$1.594,02'}</t>
+  </si>
+  <si>
+    <t>{'R$2.276,95'}</t>
+  </si>
+  <si>
+    <t>{'R$1.920,67'}</t>
+  </si>
+  <si>
+    <t>{'R$1.969,89'}</t>
+  </si>
+  <si>
+    <t>{'R$620,26'}</t>
+  </si>
+  <si>
+    <t>{'R$963,08'}</t>
+  </si>
+  <si>
+    <t>{'R$1.871,23'}</t>
+  </si>
+  <si>
+    <t>{'R$2.701,67'}</t>
+  </si>
+  <si>
+    <t>{'R$658,08'}</t>
+  </si>
+  <si>
+    <t>{'R$1.914,75'}</t>
+  </si>
+  <si>
+    <t>{'R$1.746,57'}</t>
+  </si>
+  <si>
+    <t>{'R$2.545,26'}</t>
+  </si>
+  <si>
+    <t>{'R$1.942,92'}</t>
+  </si>
+  <si>
+    <t>{'R$752,51'}</t>
+  </si>
+  <si>
+    <t>{'R$2.179,87'}</t>
+  </si>
+  <si>
+    <t>{'R$1.137,5'}</t>
+  </si>
+  <si>
+    <t>{'R$2.304,79'}</t>
+  </si>
+  <si>
+    <t>{'R$1.938,25'}</t>
+  </si>
+  <si>
+    <t>{'R$69,74'}</t>
+  </si>
+  <si>
+    <t>{'R$1.831,56'}</t>
+  </si>
+  <si>
+    <t>{'R$3.351,28'}</t>
+  </si>
+  <si>
+    <t>{'R$2.274,84'}</t>
+  </si>
+  <si>
+    <t>{'R$2.633,4'}</t>
+  </si>
+  <si>
+    <t>{'R$2.299,04'}</t>
+  </si>
+  <si>
+    <t>{'R$2.219,37'}</t>
+  </si>
+  <si>
+    <t>{'R$1.608,83'}</t>
+  </si>
+  <si>
+    <t>{'R$1.568,89'}</t>
+  </si>
+  <si>
+    <t>{'R$625,79'}</t>
+  </si>
+  <si>
+    <t>{'R$2.610,98'}</t>
+  </si>
+  <si>
+    <t>{'R$1.988,67'}</t>
+  </si>
+  <si>
+    <t>{'R$1.611,17'}</t>
+  </si>
+  <si>
+    <t>{'R$657,75'}</t>
+  </si>
+  <si>
+    <t>{'R$3.141,04'}</t>
+  </si>
+  <si>
+    <t>{'R$1.478,21'}</t>
+  </si>
+  <si>
+    <t>{'R$2.015,26'}</t>
+  </si>
+  <si>
+    <t>{'R$658,73'}</t>
+  </si>
+  <si>
+    <t>{'R$1.608,89'}</t>
+  </si>
+  <si>
+    <t>{'R$1.949,54'}</t>
+  </si>
+  <si>
+    <t>{'R$3.032,5'}</t>
+  </si>
+  <si>
+    <t>{'R$2.610,93'}</t>
+  </si>
+  <si>
+    <t>{'R$4.448,13'}</t>
+  </si>
+  <si>
+    <t>2478  vendido(s)</t>
+  </si>
+  <si>
+    <t>2365  vendido(s)</t>
+  </si>
+  <si>
+    <t>1181  vendido(s)</t>
+  </si>
+  <si>
+    <t>549  vendido(s)</t>
+  </si>
+  <si>
+    <t>289  vendido(s)</t>
+  </si>
+  <si>
+    <t>869  vendido(s)</t>
+  </si>
+  <si>
+    <t>187  vendido(s)</t>
+  </si>
+  <si>
+    <t>336  vendido(s)</t>
+  </si>
+  <si>
+    <t>1  vendido(s)</t>
+  </si>
+  <si>
+    <t>26  vendido(s)</t>
+  </si>
+  <si>
+    <t>20  vendido(s)</t>
+  </si>
+  <si>
+    <t>560  vendido(s)</t>
+  </si>
+  <si>
+    <t>216  vendido(s)</t>
+  </si>
+  <si>
+    <t>143  vendido(s)</t>
+  </si>
+  <si>
+    <t>115  vendido(s)</t>
+  </si>
+  <si>
+    <t>645  vendido(s)</t>
+  </si>
+  <si>
+    <t>740  vendido(s)</t>
+  </si>
+  <si>
+    <t>28  vendido(s)</t>
+  </si>
+  <si>
+    <t>60  vendido(s)</t>
+  </si>
+  <si>
+    <t>15  vendido(s)</t>
   </si>
   <si>
     <t>2  vendido(s)</t>
   </si>
   <si>
+    <t>9  vendido(s)</t>
+  </si>
+  <si>
+    <t>8  vendido(s)</t>
+  </si>
+  <si>
+    <t>213  vendido(s)</t>
+  </si>
+  <si>
+    <t>3  vendido(s)</t>
+  </si>
+  <si>
+    <t>27  vendido(s)</t>
+  </si>
+  <si>
+    <t>50  vendido(s)</t>
+  </si>
+  <si>
+    <t>388  vendido(s)</t>
+  </si>
+  <si>
+    <t>59  vendido(s)</t>
+  </si>
+  <si>
+    <t>5073  vendido(s)</t>
+  </si>
+  <si>
+    <t>950  vendido(s)</t>
+  </si>
+  <si>
+    <t>302  vendido(s)</t>
+  </si>
+  <si>
+    <t>85  vendido(s)</t>
+  </si>
+  <si>
+    <t>25  vendido(s)</t>
+  </si>
+  <si>
+    <t>64  vendido(s)</t>
+  </si>
+  <si>
+    <t>133  vendido(s)</t>
+  </si>
+  <si>
+    <t>5  vendido(s)</t>
+  </si>
+  <si>
+    <t>33  vendido(s)</t>
+  </si>
+  <si>
+    <t>7  vendido(s)</t>
+  </si>
+  <si>
+    <t>29  vendido(s)</t>
+  </si>
+  <si>
+    <t>67  vendido(s)</t>
+  </si>
+  <si>
+    <t>12  vendido(s)</t>
+  </si>
+  <si>
+    <t>30  vendido(s)</t>
+  </si>
+  <si>
+    <t>107  vendido(s)</t>
+  </si>
+  <si>
+    <t>120  vendido(s)</t>
+  </si>
+  <si>
+    <t>272  vendido(s)</t>
+  </si>
+  <si>
+    <t>166  vendido(s)</t>
+  </si>
+  <si>
+    <t>44  vendido(s)</t>
+  </si>
+  <si>
     <t>Frete grátis</t>
   </si>
   <si>
+    <t>R$ 20 OFF a cada R$ 200 gasto</t>
+  </si>
+  <si>
+    <t>1% off extra com moedas</t>
+  </si>
+  <si>
+    <t>+ envio: R$ 28,38</t>
+  </si>
+  <si>
+    <t>+ envio: R$ 85,15</t>
+  </si>
+  <si>
+    <t>+ envio: R$ 44,28</t>
+  </si>
+  <si>
     <t>-</t>
   </si>
   <si>
-    <t>BLACKVIEW Global Store</t>
-  </si>
-  <si>
-    <t>https://pt.aliexpress.com/item/1005005043251894.html?algo_pvid=d961cd15-eedd-44a2-b7af-12830179f9f6&amp;algo_exp_id=d961cd15-eedd-44a2-b7af-12830179f9f6-0&amp;pdp_ext_f=%7B%22sku_id%22%3A%2212000031532064010%22%7D&amp;pdp_npi=2%40dis%21BRL%212221.27%212221.27%21%21%21%21%21%40211be59e16718363143565431d06f0%2112000031532064010%21sea&amp;curPageLogUid=ab9vOTeqsMez</t>
+    <t>4.9</t>
+  </si>
+  <si>
+    <t>4.8</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>4.6</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>4.7</t>
+  </si>
+  <si>
+    <t>3.6</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>3.9</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>xiaomi Store</t>
+  </si>
+  <si>
+    <t>Hong Kong Goldway</t>
+  </si>
+  <si>
+    <t>Xiaomi Mi Store</t>
+  </si>
+  <si>
+    <t>70mai-Goldway Store</t>
+  </si>
+  <si>
+    <t>Tablet Global Store</t>
+  </si>
+  <si>
+    <t>XIAOMI TookFun Tech Store</t>
+  </si>
+  <si>
+    <t>Russian Tech Store</t>
+  </si>
+  <si>
+    <t>MoreCaseFor Tablet Store</t>
+  </si>
+  <si>
+    <t>Xiaomi Global Online Store</t>
+  </si>
+  <si>
+    <t>YouGeek Store</t>
+  </si>
+  <si>
+    <t>XiaomiPro Global Store</t>
+  </si>
+  <si>
+    <t>Amiben tablet Store</t>
+  </si>
+  <si>
+    <t>XIAOMI Wish Store</t>
+  </si>
+  <si>
+    <t>Xloami Factory Tablet Store</t>
+  </si>
+  <si>
+    <t>XIAOMI Laptop Tablet Store</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FANTACY  TECHNOLOGY </t>
+  </si>
+  <si>
+    <t>MeMall Store</t>
+  </si>
+  <si>
+    <t>LANCHEN Store</t>
+  </si>
+  <si>
+    <t>Xiaomi Pad Direct Store</t>
+  </si>
+  <si>
+    <t>CN-AUCTION Store</t>
+  </si>
+  <si>
+    <t>Global Version Mipad Store</t>
+  </si>
+  <si>
+    <t>China Seagates Authentication Store</t>
+  </si>
+  <si>
+    <t>Xiaomi Live Store</t>
+  </si>
+  <si>
+    <t>Fashion Digital Store</t>
+  </si>
+  <si>
+    <t>Xiao-Mi Gshopper Store</t>
+  </si>
+  <si>
+    <t>PhilipsEarphone Authorization Store</t>
+  </si>
+  <si>
+    <t>Xiaomi Official Store</t>
+  </si>
+  <si>
+    <t>ONE TABLET Store</t>
+  </si>
+  <si>
+    <t>https://pt.aliexpress.com/item/1005003446039555.html?algo_pvid=2f8840c8-efce-4ecb-a71e-38819485cebb&amp;algo_exp_id=2f8840c8-efce-4ecb-a71e-38819485cebb-0&amp;pdp_ext_f=%7B%22sku_id%22%3A%2212000031067476891%22%7D&amp;pdp_npi=2%40dis%21BRL%212188.22%211575.51%21%21%21%21%21%4021021d7b16720087216663638d0793%2112000031067476891%21sea&amp;curPageLogUid=QVEZUs6Wjyr3</t>
+  </si>
+  <si>
+    <t>https://pt.aliexpress.com/item/1005003161613214.html?algo_pvid=2f8840c8-efce-4ecb-a71e-38819485cebb&amp;algo_exp_id=2f8840c8-efce-4ecb-a71e-38819485cebb-1&amp;pdp_ext_f=%7B%22sku_id%22%3A%2212000031521140367%22%7D&amp;pdp_npi=2%40dis%21BRL%212226.86%211581.05%21%21%21%21%21%4021021d7b16720087216663638d0793%2112000031521140367%21sea&amp;curPageLogUid=uz3b1fmLG4KH</t>
+  </si>
+  <si>
+    <t>https://pt.aliexpress.com/item/1005003457553953.html?algo_pvid=2f8840c8-efce-4ecb-a71e-38819485cebb&amp;algo_exp_id=2f8840c8-efce-4ecb-a71e-38819485cebb-2&amp;pdp_ext_f=%7B%22sku_id%22%3A%2212000031193783269%22%7D&amp;pdp_npi=2%40dis%21BRL%212584.66%211809.25%21%21%21%21%21%4021021d7b16720087216663638d0793%2112000031193783269%21sea&amp;curPageLogUid=4Ekmu8yFsLN4</t>
+  </si>
+  <si>
+    <t>https://pt.aliexpress.com/item/1005003621530693.html?algo_pvid=2f8840c8-efce-4ecb-a71e-38819485cebb&amp;algo_exp_id=2f8840c8-efce-4ecb-a71e-38819485cebb-3&amp;pdp_ext_f=%7B%22sku_id%22%3A%2212000031519968897%22%7D&amp;pdp_npi=2%40dis%21BRL%212432.38%211581.05%21%21%21%21%21%4021021d7b16720087216663638d0793%2112000031519968897%21sea&amp;curPageLogUid=DpMN8CshsSE1</t>
+  </si>
+  <si>
+    <t>https://pt.aliexpress.com/item/1005004873772823.html?algo_pvid=2f8840c8-efce-4ecb-a71e-38819485cebb&amp;aem_p4p_detail=2022122514520113862709919871770016080836&amp;algo_exp_id=2f8840c8-efce-4ecb-a71e-38819485cebb-4&amp;pdp_ext_f=%7B%22sku_id%22%3A%2212000030842484896%22%7D&amp;pdp_npi=2%40dis%21BRL%21800.48%21640.39%21%21%21%21%21%4021021d7b16720087216663638d0793%2112000030842484896%21sea&amp;curPageLogUid=HwzGWqyDBhri&amp;ad_pvid=2022122514520113862709919871770016080836_1&amp;ad_pvid=2022122514520113862709919871770016080836_1</t>
+  </si>
+  <si>
+    <t>https://pt.aliexpress.com/item/1005003949862990.html?algo_pvid=2f8840c8-efce-4ecb-a71e-38819485cebb&amp;algo_exp_id=2f8840c8-efce-4ecb-a71e-38819485cebb-5&amp;pdp_ext_f=%7B%22sku_id%22%3A%2212000031497536172%22%7D&amp;pdp_npi=2%40dis%21BRL%211992.52%211594.02%21%21%21%21%21%4021021d7b16720087216663638d0793%2112000031497536172%21sea&amp;curPageLogUid=1Fg3R4zitIrg</t>
+  </si>
+  <si>
+    <t>https://pt.aliexpress.com/item/1005004639868795.html?algo_pvid=2f8840c8-efce-4ecb-a71e-38819485cebb&amp;algo_exp_id=2f8840c8-efce-4ecb-a71e-38819485cebb-6&amp;pdp_ext_f=%7B%22sku_id%22%3A%2212000031154339833%22%7D&amp;pdp_npi=2%40dis%21BRL%212846.19%212276.95%21%21%21%21%21%4021021d7b16720087216663638d0793%2112000031154339833%21sea&amp;curPageLogUid=x6UsN5RwePLI</t>
+  </si>
+  <si>
+    <t>https://pt.aliexpress.com/item/1005003621260611.html?algo_pvid=2f8840c8-efce-4ecb-a71e-38819485cebb&amp;algo_exp_id=2f8840c8-efce-4ecb-a71e-38819485cebb-7&amp;pdp_ext_f=%7B%22sku_id%22%3A%2212000031521257869%22%7D&amp;pdp_npi=2%40dis%21BRL%213001.02%211920.67%21%21%21%21%21%4021021d7b16720087216663638d0793%2112000031521257869%21sea&amp;curPageLogUid=Bu9QY0pdVvWc</t>
+  </si>
+  <si>
+    <t>https://pt.aliexpress.com/item/1005004794267013.html?algo_pvid=2f8840c8-efce-4ecb-a71e-38819485cebb&amp;algo_exp_id=2f8840c8-efce-4ecb-a71e-38819485cebb-8&amp;pdp_ext_f=%7B%22sku_id%22%3A%2212000030509870524%22%7D&amp;pdp_npi=2%40dis%21BRL%213283.17%211969.89%21%21%21%21%21%4021021d7b16720087216663638d0793%2112000030509870524%21sea&amp;curPageLogUid=oc0c8HSIUKrV</t>
+  </si>
+  <si>
+    <t>https://pt.aliexpress.com/item/1005004992524703.html?algo_pvid=2f8840c8-efce-4ecb-a71e-38819485cebb&amp;aem_p4p_detail=2022122514520113862709919871770016080836&amp;algo_exp_id=2f8840c8-efce-4ecb-a71e-38819485cebb-9&amp;pdp_ext_f=%7B%22sku_id%22%3A%2212000031268008320%22%7D&amp;pdp_npi=2%40dis%21BRL%21652.91%21620.26%21%21%21%21%21%4021021d7b16720087216663638d0793%2112000031268008320%21sea&amp;curPageLogUid=bl2SOea9Gz7U&amp;ad_pvid=2022122514520113862709919871770016080836_2&amp;ad_pvid=2022122514520113862709919871770016080836_2</t>
+  </si>
+  <si>
+    <t>https://pt.aliexpress.com/item/1005004867230871.html?algo_pvid=2f8840c8-efce-4ecb-a71e-38819485cebb&amp;algo_exp_id=2f8840c8-efce-4ecb-a71e-38819485cebb-10&amp;pdp_ext_f=%7B%22sku_id%22%3A%2212000031520366241%22%7D&amp;pdp_npi=2%40dis%21BRL%211395.77%21963.08%21%21%21%21%21%4021021d7b16720087216663638d0793%2112000031520366241%21sea&amp;curPageLogUid=GKffCYXvLsGo</t>
+  </si>
+  <si>
+    <t>https://pt.aliexpress.com/item/1005003435779749.html?algo_pvid=2f8840c8-efce-4ecb-a71e-38819485cebb&amp;algo_exp_id=2f8840c8-efce-4ecb-a71e-38819485cebb-11&amp;pdp_ext_f=%7B%22sku_id%22%3A%2212000030752870231%22%7D&amp;pdp_npi=2%40dis%21BRL%212282.0%211871.23%21%21%21%21%21%4021021d7b16720087216663638d0793%2112000030752870231%21sea&amp;curPageLogUid=Ku7vD0GEDXin</t>
+  </si>
+  <si>
+    <t>https://pt.aliexpress.com/item/1005003163111597.html?algo_pvid=2f8840c8-efce-4ecb-a71e-38819485cebb&amp;algo_exp_id=2f8840c8-efce-4ecb-a71e-38819485cebb-12&amp;pdp_ext_f=%7B%22sku_id%22%3A%2212000031508273455%22%7D&amp;pdp_npi=2%40dis%21BRL%212226.86%211581.05%21%21%21%21%21%4021021d7b16720087216663638d0793%2112000031508273455%21sea&amp;curPageLogUid=uim7Hi46c9sf</t>
+  </si>
+  <si>
+    <t>https://pt.aliexpress.com/item/1005004645237914.html?algo_pvid=2f8840c8-efce-4ecb-a71e-38819485cebb&amp;algo_exp_id=2f8840c8-efce-4ecb-a71e-38819485cebb-13&amp;pdp_ext_f=%7B%22sku_id%22%3A%2212000030083984098%22%7D&amp;pdp_npi=2%40dis%21BRL%214357.5%212701.67%21%21%21%21%21%4021021d7b16720087216663638d0793%2112000030083984098%21sea&amp;curPageLogUid=tq4Fia0pXL5r</t>
+  </si>
+  <si>
+    <t>https://pt.aliexpress.com/item/1005004980790353.html?algo_pvid=2f8840c8-efce-4ecb-a71e-38819485cebb&amp;aem_p4p_detail=2022122514520113862709919871770016080836&amp;algo_exp_id=2f8840c8-efce-4ecb-a71e-38819485cebb-14&amp;pdp_ext_f=%7B%22sku_id%22%3A%2212000031227539408%22%7D&amp;pdp_npi=2%40dis%21BRL%21658.08%21658.08%21%21%21%21%21%4021021d7b16720087216663638d0793%2112000031227539408%21sea&amp;curPageLogUid=A4xefiP1iRm6&amp;ad_pvid=2022122514520113862709919871770016080836_3&amp;ad_pvid=2022122514520113862709919871770016080836_3</t>
+  </si>
+  <si>
+    <t>https://pt.aliexpress.com/item/1005003333712286.html?algo_pvid=2f8840c8-efce-4ecb-a71e-38819485cebb&amp;algo_exp_id=2f8840c8-efce-4ecb-a71e-38819485cebb-15&amp;pdp_ext_f=%7B%22sku_id%22%3A%2212000031074300659%22%7D&amp;pdp_npi=2%40dis%21BRL%212252.64%211914.75%21%21%21%21%21%4021021d7b16720087216663638d0793%2112000031074300659%21sea&amp;curPageLogUid=bVqYVNthGyHg</t>
+  </si>
+  <si>
+    <t>https://pt.aliexpress.com/item/1005003931605643.html?algo_pvid=2f8840c8-efce-4ecb-a71e-38819485cebb&amp;algo_exp_id=2f8840c8-efce-4ecb-a71e-38819485cebb-16&amp;pdp_ext_f=%7B%22sku_id%22%3A%2212000027817387489%22%7D&amp;pdp_npi=2%40dis%21BRL%212817.05%211746.57%21%21%21%21%21%4021021d7b16720087216663638d0793%2112000027817387489%21sea&amp;curPageLogUid=iDLauCfF7BIs</t>
+  </si>
+  <si>
+    <t>https://pt.aliexpress.com/item/1005005027897454.html?algo_pvid=2f8840c8-efce-4ecb-a71e-38819485cebb&amp;algo_exp_id=2f8840c8-efce-4ecb-a71e-38819485cebb-17&amp;pdp_ext_f=%7B%22sku_id%22%3A%2212000031384345277%22%7D&amp;pdp_npi=2%40dis%21BRL%213181.58%212545.26%21%21%21%21%21%4021021d7b16720087216663638d0793%2112000031384345277%21sea&amp;curPageLogUid=mJlnFzI5EATd</t>
+  </si>
+  <si>
+    <t>https://pt.aliexpress.com/item/1005003163144538.html?algo_pvid=2f8840c8-efce-4ecb-a71e-38819485cebb&amp;algo_exp_id=2f8840c8-efce-4ecb-a71e-38819485cebb-18&amp;pdp_ext_f=%7B%22sku_id%22%3A%2212000028685923212%22%7D&amp;pdp_npi=2%40dis%21BRL%212428.64%211942.92%21%21%21%21%21%4021021d7b16720087216663638d0793%2112000028685923212%21sea&amp;curPageLogUid=MSqKOiTDb6qu</t>
+  </si>
+  <si>
+    <t>https://pt.aliexpress.com/item/1005004894826955.html?algo_pvid=2f8840c8-efce-4ecb-a71e-38819485cebb&amp;aem_p4p_detail=2022122514520113862709919871770016080836&amp;algo_exp_id=2f8840c8-efce-4ecb-a71e-38819485cebb-19&amp;pdp_ext_f=%7B%22sku_id%22%3A%2212000030927326447%22%7D&amp;pdp_npi=2%40dis%21BRL%21752.51%21752.51%21%21%21%21%21%4021021d7b16720087216663638d0793%2112000030927326447%21sea&amp;curPageLogUid=EdrkTJ0T0tpU&amp;ad_pvid=2022122514520113862709919871770016080836_4&amp;ad_pvid=2022122514520113862709919871770016080836_4</t>
+  </si>
+  <si>
+    <t>https://pt.aliexpress.com/item/1005004376594648.html?algo_pvid=2f8840c8-efce-4ecb-a71e-38819485cebb&amp;algo_exp_id=2f8840c8-efce-4ecb-a71e-38819485cebb-20&amp;pdp_ext_f=%7B%22sku_id%22%3A%2212000028963216267%22%7D&amp;pdp_npi=2%40dis%21BRL%214359.74%212179.87%21%21%21%21%21%4021021d7b16720087216663638d0793%2112000028963216267%21sea&amp;curPageLogUid=8eD7Ruyw1Wcf</t>
+  </si>
+  <si>
+    <t>https://pt.aliexpress.com/item/1005004898799245.html?algo_pvid=2f8840c8-efce-4ecb-a71e-38819485cebb&amp;algo_exp_id=2f8840c8-efce-4ecb-a71e-38819485cebb-21&amp;pdp_ext_f=%7B%22sku_id%22%3A%2212000030942982865%22%7D&amp;pdp_npi=2%40dis%21BRL%211137.5%211137.5%21%21%21%21%21%4021021d7b16720087216663638d0793%2112000030942982865%21sea&amp;curPageLogUid=afSjSZGQYx0a</t>
+  </si>
+  <si>
+    <t>https://pt.aliexpress.com/item/1005004834125584.html?algo_pvid=2f8840c8-efce-4ecb-a71e-38819485cebb&amp;algo_exp_id=2f8840c8-efce-4ecb-a71e-38819485cebb-22&amp;pdp_ext_f=%7B%22sku_id%22%3A%2212000031528603372%22%7D&amp;pdp_npi=2%40dis%21BRL%213292.56%212304.79%21%21%21%21%21%4021021d7b16720087216663638d0793%2112000031528603372%21sea&amp;curPageLogUid=9wIdqsqkhtQq</t>
+  </si>
+  <si>
+    <t>https://pt.aliexpress.com/item/1005003428029209.html?algo_pvid=2f8840c8-efce-4ecb-a71e-38819485cebb&amp;algo_exp_id=2f8840c8-efce-4ecb-a71e-38819485cebb-23&amp;pdp_ext_f=%7B%22sku_id%22%3A%2212000030504393208%22%7D&amp;pdp_npi=2%40dis%21BRL%212768.96%211938.25%21%21%21%21%21%4021021d7b16720087216663638d0793%2112000030504393208%21sea&amp;curPageLogUid=p2TxgIA3xgMw</t>
+  </si>
+  <si>
+    <t>https://pt.aliexpress.com/item/1005004685753315.html?algo_pvid=2f8840c8-efce-4ecb-a71e-38819485cebb&amp;aem_p4p_detail=2022122514520113862709919871770016080836&amp;algo_exp_id=2f8840c8-efce-4ecb-a71e-38819485cebb-24&amp;pdp_ext_f=%7B%22sku_id%22%3A%2212000030108592753%22%7D&amp;pdp_npi=2%40dis%21BRL%21139.47%2169.74%21%21%21%21%21%4021021d7b16720087216663638d0793%2112000030108592753%21sea&amp;curPageLogUid=BGv8rgQ16bkN&amp;ad_pvid=2022122514520113862709919871770016080836_5&amp;ad_pvid=2022122514520113862709919871770016080836_5</t>
+  </si>
+  <si>
+    <t>https://pt.aliexpress.com/item/1005004614346293.html?algo_pvid=2f8840c8-efce-4ecb-a71e-38819485cebb&amp;algo_exp_id=2f8840c8-efce-4ecb-a71e-38819485cebb-25&amp;pdp_ext_f=%7B%22sku_id%22%3A%2212000029837329089%22%7D&amp;pdp_npi=2%40dis%21BRL%212348.15%211831.56%21%21%21%21%21%4021021d7b16720087216663638d0793%2112000029837329089%21sea&amp;curPageLogUid=LRs4c4HBRprt</t>
+  </si>
+  <si>
+    <t>https://pt.aliexpress.com/item/1005004084955039.html?algo_pvid=2f8840c8-efce-4ecb-a71e-38819485cebb&amp;algo_exp_id=2f8840c8-efce-4ecb-a71e-38819485cebb-26&amp;pdp_ext_f=%7B%22sku_id%22%3A%2212000027987623625%22%7D&amp;pdp_npi=2%40dis%21BRL%214787.54%213351.28%21%21%21%21%21%4021021d7b16720087216663638d0793%2112000027987623625%21sea&amp;curPageLogUid=qOxThIF8emFm</t>
+  </si>
+  <si>
+    <t>https://pt.aliexpress.com/item/1005003304771679.html?algo_pvid=2f8840c8-efce-4ecb-a71e-38819485cebb&amp;algo_exp_id=2f8840c8-efce-4ecb-a71e-38819485cebb-27&amp;pdp_ext_f=%7B%22sku_id%22%3A%2212000029388120571%22%7D&amp;pdp_npi=2%40dis%21BRL%213249.8%212274.84%21%21%21%21%21%4021021d7b16720087216663638d0793%2112000029388120571%21sea&amp;curPageLogUid=NfVGMD6O9THU</t>
+  </si>
+  <si>
+    <t>https://pt.aliexpress.com/item/1005003656941092.html?algo_pvid=2f8840c8-efce-4ecb-a71e-38819485cebb&amp;algo_exp_id=2f8840c8-efce-4ecb-a71e-38819485cebb-28&amp;pdp_ext_f=%7B%22sku_id%22%3A%2212000026678141103%22%7D&amp;pdp_npi=2%40dis%21BRL%213333.43%212633.4%21%21%21%21%21%4021021d7b16720087216663638d0793%2112000026678141103%21sea&amp;curPageLogUid=s5gOiAogFfAz</t>
+  </si>
+  <si>
+    <t>https://pt.aliexpress.com/item/1005004897411421.html?algo_pvid=2f8840c8-efce-4ecb-a71e-38819485cebb&amp;aem_p4p_detail=2022122514520113862709919871770016080836&amp;algo_exp_id=2f8840c8-efce-4ecb-a71e-38819485cebb-29&amp;pdp_ext_f=%7B%22sku_id%22%3A%2212000030937791830%22%7D&amp;pdp_npi=2%40dis%21BRL%21800.48%21640.39%21%21%21%21%21%4021021d7b16720087216663638d0793%2112000030937791830%21sea&amp;curPageLogUid=GG5UP6UyR3JC&amp;ad_pvid=2022122514520113862709919871770016080836_6&amp;ad_pvid=2022122514520113862709919871770016080836_6</t>
+  </si>
+  <si>
+    <t>https://pt.aliexpress.com/item/1005003485346621.html?algo_pvid=2f8840c8-efce-4ecb-a71e-38819485cebb&amp;algo_exp_id=2f8840c8-efce-4ecb-a71e-38819485cebb-30&amp;pdp_ext_f=%7B%22sku_id%22%3A%2212000026003329521%22%7D&amp;pdp_npi=2%40dis%21BRL%213284.31%212299.04%21%21%21%21%21%4021021d7b16720087216663638d0793%2112000026003329521%21sea&amp;curPageLogUid=Ak90HMzUod0G</t>
+  </si>
+  <si>
+    <t>https://pt.aliexpress.com/store/911128244</t>
+  </si>
+  <si>
+    <t>https://pt.aliexpress.com/store/311331</t>
+  </si>
+  <si>
+    <t>https://pt.aliexpress.com/store/2800188</t>
+  </si>
+  <si>
+    <t>https://pt.aliexpress.com/store/3869084</t>
+  </si>
+  <si>
+    <t>https://pt.aliexpress.com/store/1102210311</t>
+  </si>
+  <si>
+    <t>https://pt.aliexpress.com/store/1210552</t>
+  </si>
+  <si>
+    <t>https://pt.aliexpress.com/store/5383249</t>
+  </si>
+  <si>
+    <t>https://pt.aliexpress.com/store/1102472187</t>
+  </si>
+  <si>
+    <t>https://pt.aliexpress.com/store/911842253</t>
+  </si>
+  <si>
+    <t>https://pt.aliexpress.com/store/2663028</t>
+  </si>
+  <si>
+    <t>https://pt.aliexpress.com/store/912234003</t>
+  </si>
+  <si>
+    <t>https://pt.aliexpress.com/store/1102375500</t>
+  </si>
+  <si>
+    <t>https://pt.aliexpress.com/store/5082482</t>
+  </si>
+  <si>
+    <t>https://pt.aliexpress.com/store/1102406458</t>
+  </si>
+  <si>
+    <t>https://pt.aliexpress.com/store/1102128721</t>
+  </si>
+  <si>
+    <t>https://pt.aliexpress.com/store/609089</t>
+  </si>
+  <si>
+    <t>https://pt.aliexpress.com/store/4424199</t>
+  </si>
+  <si>
+    <t>https://pt.aliexpress.com/store/1102137909</t>
+  </si>
+  <si>
+    <t>https://pt.aliexpress.com/store/910367227</t>
+  </si>
+  <si>
+    <t>https://pt.aliexpress.com/store/600815</t>
+  </si>
+  <si>
+    <t>https://pt.aliexpress.com/store/1102407416</t>
+  </si>
+  <si>
+    <t>https://pt.aliexpress.com/store/4310054</t>
   </si>
   <si>
     <t>(s)</t>
@@ -441,13 +1164,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -478,45 +1201,4052 @@
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G2" t="s">
+        <v>166</v>
+      </c>
+      <c r="H2" t="s">
+        <v>177</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="K2" t="s">
+        <v>258</v>
+      </c>
+      <c r="L2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F3" t="s">
+        <v>165</v>
+      </c>
+      <c r="G3" t="s">
+        <v>166</v>
+      </c>
+      <c r="H3" t="s">
+        <v>178</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="K3" t="s">
+        <v>258</v>
+      </c>
+      <c r="L3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" t="s">
+        <v>159</v>
+      </c>
+      <c r="F4" t="s">
+        <v>165</v>
+      </c>
+      <c r="G4" t="s">
+        <v>166</v>
+      </c>
+      <c r="H4" t="s">
+        <v>179</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="K4" t="s">
+        <v>258</v>
+      </c>
+      <c r="L4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E5" t="s">
+        <v>159</v>
+      </c>
+      <c r="F5" t="s">
+        <v>165</v>
+      </c>
+      <c r="G5" t="s">
+        <v>167</v>
+      </c>
+      <c r="H5" t="s">
+        <v>180</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="K5" t="s">
+        <v>258</v>
+      </c>
+      <c r="L5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E6" t="s">
+        <v>160</v>
+      </c>
+      <c r="F6" t="s">
+        <v>165</v>
+      </c>
+      <c r="G6" t="s">
+        <v>167</v>
+      </c>
+      <c r="H6" t="s">
+        <v>181</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="K6" t="s">
+        <v>258</v>
+      </c>
+      <c r="L6" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G7" t="s">
+        <v>168</v>
+      </c>
+      <c r="H7" t="s">
+        <v>182</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="K7" t="s">
+        <v>258</v>
+      </c>
+      <c r="L7" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" t="s">
+        <v>117</v>
+      </c>
+      <c r="E8" t="s">
+        <v>159</v>
+      </c>
+      <c r="F8" t="s">
+        <v>165</v>
+      </c>
+      <c r="G8" t="s">
+        <v>168</v>
+      </c>
+      <c r="H8" t="s">
+        <v>178</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="K8" t="s">
+        <v>258</v>
+      </c>
+      <c r="L8" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" t="s">
+        <v>118</v>
+      </c>
+      <c r="E9" t="s">
+        <v>159</v>
+      </c>
+      <c r="F9" t="s">
+        <v>165</v>
+      </c>
+      <c r="G9" t="s">
+        <v>167</v>
+      </c>
+      <c r="H9" t="s">
+        <v>178</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="K9" t="s">
+        <v>258</v>
+      </c>
+      <c r="L9" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" t="s">
+        <v>119</v>
+      </c>
+      <c r="E10" t="s">
+        <v>159</v>
+      </c>
+      <c r="F10" t="s">
+        <v>165</v>
+      </c>
+      <c r="G10" t="s">
+        <v>168</v>
+      </c>
+      <c r="H10" t="s">
+        <v>183</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="K10" t="s">
+        <v>258</v>
+      </c>
+      <c r="L10" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" t="s">
+        <v>120</v>
+      </c>
+      <c r="E11" t="s">
+        <v>159</v>
+      </c>
+      <c r="F11" t="s">
+        <v>165</v>
+      </c>
+      <c r="G11" t="s">
+        <v>169</v>
+      </c>
+      <c r="H11" t="s">
+        <v>184</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="K11" t="s">
+        <v>258</v>
+      </c>
+      <c r="L11" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" t="s">
+        <v>121</v>
+      </c>
+      <c r="E12" t="s">
+        <v>159</v>
+      </c>
+      <c r="F12" t="s">
+        <v>165</v>
+      </c>
+      <c r="G12" t="s">
+        <v>168</v>
+      </c>
+      <c r="H12" t="s">
+        <v>180</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="K12" t="s">
+        <v>258</v>
+      </c>
+      <c r="L12" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" t="s">
+        <v>122</v>
+      </c>
+      <c r="E13" t="s">
+        <v>159</v>
+      </c>
+      <c r="F13" t="s">
+        <v>165</v>
+      </c>
+      <c r="G13" t="s">
+        <v>166</v>
+      </c>
+      <c r="H13" t="s">
+        <v>185</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="K13" t="s">
+        <v>258</v>
+      </c>
+      <c r="L13" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E14" t="s">
+        <v>159</v>
+      </c>
+      <c r="F14" t="s">
+        <v>165</v>
+      </c>
+      <c r="G14" t="s">
+        <v>166</v>
+      </c>
+      <c r="H14" t="s">
+        <v>186</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="K14" t="s">
+        <v>258</v>
+      </c>
+      <c r="L14" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" t="s">
+        <v>124</v>
+      </c>
+      <c r="E15" t="s">
+        <v>159</v>
+      </c>
+      <c r="F15" t="s">
+        <v>165</v>
+      </c>
+      <c r="G15" t="s">
+        <v>169</v>
+      </c>
+      <c r="H15" t="s">
+        <v>187</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="K15" t="s">
+        <v>258</v>
+      </c>
+      <c r="L15" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" t="s">
+        <v>125</v>
+      </c>
+      <c r="E16" t="s">
+        <v>159</v>
+      </c>
+      <c r="F16" t="s">
+        <v>165</v>
+      </c>
+      <c r="G16" t="s">
+        <v>168</v>
+      </c>
+      <c r="H16" t="s">
+        <v>188</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="K16" t="s">
+        <v>258</v>
+      </c>
+      <c r="L16" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" t="s">
+        <v>126</v>
+      </c>
+      <c r="E17" t="s">
+        <v>159</v>
+      </c>
+      <c r="F17" t="s">
+        <v>165</v>
+      </c>
+      <c r="G17" t="s">
+        <v>167</v>
+      </c>
+      <c r="H17" t="s">
+        <v>178</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="K17" t="s">
+        <v>258</v>
+      </c>
+      <c r="L17" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" t="s">
+        <v>127</v>
+      </c>
+      <c r="E18" t="s">
+        <v>159</v>
+      </c>
+      <c r="F18" t="s">
+        <v>165</v>
+      </c>
+      <c r="G18" t="s">
+        <v>170</v>
+      </c>
+      <c r="H18" t="s">
+        <v>187</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="K18" t="s">
+        <v>258</v>
+      </c>
+      <c r="L18" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>159</v>
+      </c>
+      <c r="F19" t="s">
+        <v>165</v>
+      </c>
+      <c r="G19" t="s">
+        <v>165</v>
+      </c>
+      <c r="H19" t="s">
+        <v>189</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="K19" t="s">
+        <v>258</v>
+      </c>
+      <c r="L19" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" t="s">
+        <v>128</v>
+      </c>
+      <c r="E20" t="s">
+        <v>159</v>
+      </c>
+      <c r="F20" t="s">
+        <v>165</v>
+      </c>
+      <c r="G20" t="s">
+        <v>171</v>
+      </c>
+      <c r="H20" t="s">
+        <v>186</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="K20" t="s">
+        <v>258</v>
+      </c>
+      <c r="L20" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" t="s">
+        <v>129</v>
+      </c>
+      <c r="E21" t="s">
+        <v>159</v>
+      </c>
+      <c r="F21" t="s">
+        <v>165</v>
+      </c>
+      <c r="G21" t="s">
+        <v>172</v>
+      </c>
+      <c r="H21" t="s">
+        <v>190</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="K21" t="s">
+        <v>258</v>
+      </c>
+      <c r="L21" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" t="s">
+        <v>130</v>
+      </c>
+      <c r="E22" t="s">
+        <v>159</v>
+      </c>
+      <c r="F22" t="s">
+        <v>165</v>
+      </c>
+      <c r="G22" t="s">
+        <v>173</v>
+      </c>
+      <c r="H22" t="s">
+        <v>191</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="K22" t="s">
+        <v>258</v>
+      </c>
+      <c r="L22" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" t="s">
+        <v>131</v>
+      </c>
+      <c r="E23" t="s">
+        <v>159</v>
+      </c>
+      <c r="F23" t="s">
+        <v>165</v>
+      </c>
+      <c r="G23" t="s">
+        <v>168</v>
+      </c>
+      <c r="H23" t="s">
+        <v>192</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="K23" t="s">
+        <v>258</v>
+      </c>
+      <c r="L23" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" t="s">
+        <v>132</v>
+      </c>
+      <c r="E24" t="s">
+        <v>159</v>
+      </c>
+      <c r="F24" t="s">
+        <v>165</v>
+      </c>
+      <c r="G24" t="s">
+        <v>168</v>
+      </c>
+      <c r="H24" t="s">
+        <v>193</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="K24" t="s">
+        <v>258</v>
+      </c>
+      <c r="L24" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" t="s">
+        <v>87</v>
+      </c>
+      <c r="D25" t="s">
+        <v>133</v>
+      </c>
+      <c r="E25" t="s">
+        <v>159</v>
+      </c>
+      <c r="F25" t="s">
+        <v>165</v>
+      </c>
+      <c r="G25" t="s">
+        <v>168</v>
+      </c>
+      <c r="H25" t="s">
+        <v>183</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="K25" t="s">
+        <v>258</v>
+      </c>
+      <c r="L25" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" t="s">
+        <v>88</v>
+      </c>
+      <c r="D26" t="s">
+        <v>134</v>
+      </c>
+      <c r="E26" t="s">
+        <v>161</v>
+      </c>
+      <c r="F26" t="s">
+        <v>165</v>
+      </c>
+      <c r="G26" t="s">
+        <v>166</v>
+      </c>
+      <c r="H26" t="s">
+        <v>194</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="K26" t="s">
+        <v>258</v>
+      </c>
+      <c r="L26" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" t="s">
+        <v>135</v>
+      </c>
+      <c r="E27" t="s">
+        <v>159</v>
+      </c>
+      <c r="F27" t="s">
+        <v>165</v>
+      </c>
+      <c r="G27" t="s">
+        <v>165</v>
+      </c>
+      <c r="H27" t="s">
+        <v>180</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="K27" t="s">
+        <v>258</v>
+      </c>
+      <c r="L27" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" t="s">
+        <v>90</v>
+      </c>
+      <c r="D28" t="s">
+        <v>136</v>
+      </c>
+      <c r="E28" t="s">
+        <v>159</v>
+      </c>
+      <c r="F28" t="s">
+        <v>165</v>
+      </c>
+      <c r="G28" t="s">
+        <v>169</v>
+      </c>
+      <c r="H28" t="s">
+        <v>195</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="K28" t="s">
+        <v>258</v>
+      </c>
+      <c r="L28" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" t="s">
+        <v>91</v>
+      </c>
+      <c r="D29" t="s">
+        <v>137</v>
+      </c>
+      <c r="E29" t="s">
+        <v>159</v>
+      </c>
+      <c r="F29" t="s">
+        <v>165</v>
+      </c>
+      <c r="G29" t="s">
+        <v>167</v>
+      </c>
+      <c r="H29" t="s">
+        <v>195</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="K29" t="s">
+        <v>258</v>
+      </c>
+      <c r="L29" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>159</v>
+      </c>
+      <c r="F30" t="s">
+        <v>165</v>
+      </c>
+      <c r="G30" t="s">
+        <v>165</v>
+      </c>
+      <c r="H30" t="s">
+        <v>196</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="K30" t="s">
+        <v>258</v>
+      </c>
+      <c r="L30" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" t="s">
+        <v>138</v>
+      </c>
+      <c r="E31" t="s">
+        <v>160</v>
+      </c>
+      <c r="F31" t="s">
+        <v>165</v>
+      </c>
+      <c r="G31" t="s">
+        <v>171</v>
+      </c>
+      <c r="H31" t="s">
+        <v>197</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="K31" t="s">
+        <v>258</v>
+      </c>
+      <c r="L31" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" t="s">
+        <v>93</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32" t="s">
+        <v>162</v>
+      </c>
+      <c r="F32" t="s">
+        <v>165</v>
+      </c>
+      <c r="G32" t="s">
+        <v>165</v>
+      </c>
+      <c r="H32" t="s">
+        <v>198</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="K32" t="s">
+        <v>258</v>
+      </c>
+      <c r="L32" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" t="s">
+        <v>94</v>
+      </c>
+      <c r="D33" t="s">
+        <v>139</v>
+      </c>
+      <c r="E33" t="s">
+        <v>159</v>
+      </c>
+      <c r="F33" t="s">
+        <v>165</v>
+      </c>
+      <c r="G33" t="s">
+        <v>171</v>
+      </c>
+      <c r="H33" t="s">
+        <v>195</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="K33" t="s">
+        <v>258</v>
+      </c>
+      <c r="L33" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" t="s">
+        <v>95</v>
+      </c>
+      <c r="D34" t="s">
+        <v>140</v>
+      </c>
+      <c r="E34" t="s">
+        <v>159</v>
+      </c>
+      <c r="F34" t="s">
+        <v>165</v>
+      </c>
+      <c r="G34" t="s">
+        <v>166</v>
+      </c>
+      <c r="H34" t="s">
+        <v>178</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="K34" t="s">
+        <v>258</v>
+      </c>
+      <c r="L34" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" t="s">
+        <v>96</v>
+      </c>
+      <c r="D35" t="s">
+        <v>141</v>
+      </c>
+      <c r="E35" t="s">
+        <v>159</v>
+      </c>
+      <c r="F35" t="s">
+        <v>165</v>
+      </c>
+      <c r="G35" t="s">
+        <v>166</v>
+      </c>
+      <c r="H35" t="s">
+        <v>192</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="K35" t="s">
+        <v>258</v>
+      </c>
+      <c r="L35" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" t="s">
+        <v>69</v>
+      </c>
+      <c r="D36" t="s">
+        <v>142</v>
+      </c>
+      <c r="E36" t="s">
+        <v>159</v>
+      </c>
+      <c r="F36" t="s">
+        <v>165</v>
+      </c>
+      <c r="G36" t="s">
+        <v>174</v>
+      </c>
+      <c r="H36" t="s">
+        <v>181</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="K36" t="s">
+        <v>258</v>
+      </c>
+      <c r="L36" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" t="s">
+        <v>67</v>
+      </c>
+      <c r="D37" t="s">
+        <v>143</v>
+      </c>
+      <c r="E37" t="s">
+        <v>159</v>
+      </c>
+      <c r="F37" t="s">
+        <v>165</v>
+      </c>
+      <c r="G37" t="s">
+        <v>168</v>
+      </c>
+      <c r="H37" t="s">
+        <v>193</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="K37" t="s">
+        <v>258</v>
+      </c>
+      <c r="L37" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" t="s">
+        <v>72</v>
+      </c>
+      <c r="D38" t="s">
+        <v>119</v>
+      </c>
+      <c r="E38" t="s">
+        <v>159</v>
+      </c>
+      <c r="F38" t="s">
+        <v>165</v>
+      </c>
+      <c r="G38" t="s">
+        <v>165</v>
+      </c>
+      <c r="H38" t="s">
+        <v>180</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="K38" t="s">
+        <v>258</v>
+      </c>
+      <c r="L38" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" t="s">
+        <v>71</v>
+      </c>
+      <c r="D39" t="s">
+        <v>144</v>
+      </c>
+      <c r="E39" t="s">
+        <v>159</v>
+      </c>
+      <c r="F39" t="s">
+        <v>165</v>
+      </c>
+      <c r="G39" t="s">
+        <v>168</v>
+      </c>
+      <c r="H39" t="s">
+        <v>180</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="K39" t="s">
+        <v>258</v>
+      </c>
+      <c r="L39" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" t="s">
+        <v>87</v>
+      </c>
+      <c r="D40" t="s">
+        <v>145</v>
+      </c>
+      <c r="E40" t="s">
+        <v>159</v>
+      </c>
+      <c r="F40" t="s">
+        <v>165</v>
+      </c>
+      <c r="G40" t="s">
+        <v>169</v>
+      </c>
+      <c r="H40" t="s">
+        <v>180</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="K40" t="s">
+        <v>258</v>
+      </c>
+      <c r="L40" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" t="s">
+        <v>97</v>
+      </c>
+      <c r="D41" t="s">
+        <v>146</v>
+      </c>
+      <c r="E41" t="s">
+        <v>159</v>
+      </c>
+      <c r="F41" t="s">
+        <v>165</v>
+      </c>
+      <c r="G41" t="s">
+        <v>167</v>
+      </c>
+      <c r="H41" t="s">
+        <v>190</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="K41" t="s">
+        <v>258</v>
+      </c>
+      <c r="L41" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" t="s">
+        <v>98</v>
+      </c>
+      <c r="D42" t="s">
+        <v>147</v>
+      </c>
+      <c r="E42" t="s">
+        <v>159</v>
+      </c>
+      <c r="F42" t="s">
+        <v>165</v>
+      </c>
+      <c r="G42" t="s">
+        <v>165</v>
+      </c>
+      <c r="H42" t="s">
+        <v>178</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="K42" t="s">
+        <v>258</v>
+      </c>
+      <c r="L42" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43" t="s">
+        <v>99</v>
+      </c>
+      <c r="D43" t="s">
+        <v>148</v>
+      </c>
+      <c r="E43" t="s">
+        <v>159</v>
+      </c>
+      <c r="F43" t="s">
+        <v>165</v>
+      </c>
+      <c r="G43" t="s">
+        <v>167</v>
+      </c>
+      <c r="H43" t="s">
+        <v>178</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="K43" t="s">
+        <v>258</v>
+      </c>
+      <c r="L43" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44" t="s">
+        <v>100</v>
+      </c>
+      <c r="D44" t="s">
+        <v>149</v>
+      </c>
+      <c r="E44" t="s">
+        <v>159</v>
+      </c>
+      <c r="F44" t="s">
+        <v>165</v>
+      </c>
+      <c r="G44" t="s">
+        <v>171</v>
+      </c>
+      <c r="H44" t="s">
+        <v>182</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="K44" t="s">
+        <v>258</v>
+      </c>
+      <c r="L44" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" t="s">
+        <v>82</v>
+      </c>
+      <c r="D45" t="s">
+        <v>135</v>
+      </c>
+      <c r="E45" t="s">
+        <v>159</v>
+      </c>
+      <c r="F45" t="s">
+        <v>165</v>
+      </c>
+      <c r="G45" t="s">
+        <v>168</v>
+      </c>
+      <c r="H45" t="s">
+        <v>199</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="K45" t="s">
+        <v>258</v>
+      </c>
+      <c r="L45" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46" t="s">
+        <v>101</v>
+      </c>
+      <c r="D46" t="s">
+        <v>150</v>
+      </c>
+      <c r="E46" t="s">
+        <v>159</v>
+      </c>
+      <c r="F46" t="s">
+        <v>165</v>
+      </c>
+      <c r="G46" t="s">
+        <v>173</v>
+      </c>
+      <c r="H46" t="s">
+        <v>200</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="K46" t="s">
+        <v>258</v>
+      </c>
+      <c r="L46" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47" t="s">
+        <v>102</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47" t="s">
+        <v>159</v>
+      </c>
+      <c r="F47" t="s">
+        <v>165</v>
+      </c>
+      <c r="G47" t="s">
+        <v>165</v>
+      </c>
+      <c r="H47" t="s">
+        <v>201</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="K47" t="s">
+        <v>258</v>
+      </c>
+      <c r="L47" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C48" t="s">
+        <v>67</v>
+      </c>
+      <c r="D48" t="s">
+        <v>151</v>
+      </c>
+      <c r="E48" t="s">
+        <v>159</v>
+      </c>
+      <c r="F48" t="s">
+        <v>165</v>
+      </c>
+      <c r="G48" t="s">
+        <v>166</v>
+      </c>
+      <c r="H48" t="s">
+        <v>199</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="K48" t="s">
+        <v>258</v>
+      </c>
+      <c r="L48" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>54</v>
+      </c>
+      <c r="C49" t="s">
+        <v>103</v>
+      </c>
+      <c r="D49" t="s">
+        <v>147</v>
+      </c>
+      <c r="E49" t="s">
+        <v>163</v>
+      </c>
+      <c r="F49" t="s">
+        <v>165</v>
+      </c>
+      <c r="G49" t="s">
+        <v>175</v>
+      </c>
+      <c r="H49" t="s">
+        <v>196</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="K49" t="s">
+        <v>258</v>
+      </c>
+      <c r="L49" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>55</v>
+      </c>
+      <c r="C50" t="s">
+        <v>104</v>
+      </c>
+      <c r="D50" t="s">
+        <v>152</v>
+      </c>
+      <c r="E50" t="s">
+        <v>159</v>
+      </c>
+      <c r="F50" t="s">
+        <v>165</v>
+      </c>
+      <c r="G50" t="s">
+        <v>168</v>
+      </c>
+      <c r="H50" t="s">
+        <v>186</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="K50" t="s">
+        <v>258</v>
+      </c>
+      <c r="L50" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>56</v>
+      </c>
+      <c r="C51" t="s">
+        <v>105</v>
+      </c>
+      <c r="D51" t="s">
+        <v>153</v>
+      </c>
+      <c r="E51" t="s">
+        <v>159</v>
+      </c>
+      <c r="F51" t="s">
+        <v>165</v>
+      </c>
+      <c r="G51" t="s">
+        <v>168</v>
+      </c>
+      <c r="H51" t="s">
+        <v>181</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="K51" t="s">
+        <v>258</v>
+      </c>
+      <c r="L51" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>57</v>
+      </c>
+      <c r="C52" t="s">
+        <v>67</v>
+      </c>
+      <c r="D52" t="s">
+        <v>154</v>
+      </c>
+      <c r="E52" t="s">
+        <v>159</v>
+      </c>
+      <c r="F52" t="s">
+        <v>165</v>
+      </c>
+      <c r="G52" t="s">
+        <v>167</v>
+      </c>
+      <c r="H52" t="s">
+        <v>180</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="K52" t="s">
+        <v>258</v>
+      </c>
+      <c r="L52" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>58</v>
+      </c>
+      <c r="C53" t="s">
+        <v>106</v>
+      </c>
+      <c r="D53" t="s">
+        <v>155</v>
+      </c>
+      <c r="E53" t="s">
+        <v>159</v>
+      </c>
+      <c r="F53" t="s">
+        <v>165</v>
+      </c>
+      <c r="G53" t="s">
+        <v>166</v>
+      </c>
+      <c r="H53" t="s">
+        <v>193</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="K53" t="s">
+        <v>258</v>
+      </c>
+      <c r="L53" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>59</v>
+      </c>
+      <c r="C54" t="s">
+        <v>107</v>
+      </c>
+      <c r="D54" t="s">
+        <v>135</v>
+      </c>
+      <c r="E54" t="s">
+        <v>164</v>
+      </c>
+      <c r="F54" t="s">
+        <v>165</v>
+      </c>
+      <c r="G54" t="s">
+        <v>168</v>
+      </c>
+      <c r="H54" t="s">
+        <v>202</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="K54" t="s">
+        <v>258</v>
+      </c>
+      <c r="L54" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>60</v>
+      </c>
+      <c r="C55" t="s">
+        <v>108</v>
+      </c>
+      <c r="D55" t="s">
+        <v>130</v>
+      </c>
+      <c r="E55" t="s">
+        <v>159</v>
+      </c>
+      <c r="F55" t="s">
+        <v>165</v>
+      </c>
+      <c r="G55" t="s">
+        <v>168</v>
+      </c>
+      <c r="H55" t="s">
+        <v>195</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="K55" t="s">
+        <v>258</v>
+      </c>
+      <c r="L55" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" t="s">
+        <v>69</v>
+      </c>
+      <c r="D56" t="s">
+        <v>156</v>
+      </c>
+      <c r="E56" t="s">
+        <v>159</v>
+      </c>
+      <c r="F56" t="s">
+        <v>165</v>
+      </c>
+      <c r="G56" t="s">
+        <v>169</v>
+      </c>
+      <c r="H56" t="s">
+        <v>188</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="K56" t="s">
+        <v>258</v>
+      </c>
+      <c r="L56" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>61</v>
+      </c>
+      <c r="C57" t="s">
+        <v>109</v>
+      </c>
+      <c r="D57" t="s">
+        <v>157</v>
+      </c>
+      <c r="E57" t="s">
+        <v>159</v>
+      </c>
+      <c r="F57" t="s">
+        <v>165</v>
+      </c>
+      <c r="G57" t="s">
+        <v>166</v>
+      </c>
+      <c r="H57" t="s">
+        <v>180</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="K57" t="s">
+        <v>258</v>
+      </c>
+      <c r="L57" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>62</v>
+      </c>
+      <c r="C58" t="s">
+        <v>82</v>
+      </c>
+      <c r="D58" t="s">
+        <v>149</v>
+      </c>
+      <c r="E58" t="s">
+        <v>159</v>
+      </c>
+      <c r="F58" t="s">
+        <v>165</v>
+      </c>
+      <c r="G58" t="s">
+        <v>168</v>
+      </c>
+      <c r="H58" t="s">
+        <v>199</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="K58" t="s">
+        <v>258</v>
+      </c>
+      <c r="L58" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>63</v>
+      </c>
+      <c r="C59" t="s">
+        <v>110</v>
+      </c>
+      <c r="D59" t="s">
+        <v>119</v>
+      </c>
+      <c r="E59" t="s">
+        <v>159</v>
+      </c>
+      <c r="F59" t="s">
+        <v>165</v>
+      </c>
+      <c r="G59" t="s">
+        <v>165</v>
+      </c>
+      <c r="H59" t="s">
+        <v>203</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="K59" t="s">
+        <v>258</v>
+      </c>
+      <c r="L59" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>64</v>
+      </c>
+      <c r="C60" t="s">
+        <v>109</v>
+      </c>
+      <c r="D60" t="s">
+        <v>119</v>
+      </c>
+      <c r="E60" t="s">
+        <v>159</v>
+      </c>
+      <c r="F60" t="s">
+        <v>165</v>
+      </c>
+      <c r="G60" t="s">
+        <v>176</v>
+      </c>
+      <c r="H60" t="s">
+        <v>199</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="K60" t="s">
+        <v>258</v>
+      </c>
+      <c r="L60" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>65</v>
+      </c>
+      <c r="C61" t="s">
+        <v>83</v>
+      </c>
+      <c r="D61" t="s">
+        <v>158</v>
+      </c>
+      <c r="E61" t="s">
+        <v>159</v>
+      </c>
+      <c r="F61" t="s">
+        <v>165</v>
+      </c>
+      <c r="G61" t="s">
+        <v>173</v>
+      </c>
+      <c r="H61" t="s">
+        <v>204</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="K61" t="s">
+        <v>258</v>
+      </c>
+      <c r="L61" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" t="s">
+        <v>66</v>
+      </c>
+      <c r="D62" t="s">
+        <v>111</v>
+      </c>
+      <c r="E62" t="s">
+        <v>159</v>
+      </c>
+      <c r="F62" t="s">
+        <v>165</v>
+      </c>
+      <c r="G62" t="s">
+        <v>166</v>
+      </c>
+      <c r="H62" t="s">
+        <v>177</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="K62" t="s">
+        <v>258</v>
+      </c>
+      <c r="L62" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" t="s">
+        <v>67</v>
+      </c>
+      <c r="D63" t="s">
+        <v>112</v>
+      </c>
+      <c r="E63" t="s">
+        <v>159</v>
+      </c>
+      <c r="F63" t="s">
+        <v>165</v>
+      </c>
+      <c r="G63" t="s">
+        <v>166</v>
+      </c>
+      <c r="H63" t="s">
+        <v>178</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="K63" t="s">
+        <v>258</v>
+      </c>
+      <c r="L63" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>13</v>
+      </c>
+      <c r="C64" t="s">
+        <v>68</v>
+      </c>
+      <c r="D64" t="s">
+        <v>113</v>
+      </c>
+      <c r="E64" t="s">
+        <v>159</v>
+      </c>
+      <c r="F64" t="s">
+        <v>165</v>
+      </c>
+      <c r="G64" t="s">
+        <v>166</v>
+      </c>
+      <c r="H64" t="s">
+        <v>179</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="K64" t="s">
+        <v>258</v>
+      </c>
+      <c r="L64" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
         <v>14</v>
       </c>
-      <c r="H2" t="s">
+      <c r="C65" t="s">
+        <v>67</v>
+      </c>
+      <c r="D65" t="s">
+        <v>114</v>
+      </c>
+      <c r="E65" t="s">
+        <v>159</v>
+      </c>
+      <c r="F65" t="s">
+        <v>165</v>
+      </c>
+      <c r="G65" t="s">
+        <v>167</v>
+      </c>
+      <c r="H65" t="s">
+        <v>180</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="K65" t="s">
+        <v>258</v>
+      </c>
+      <c r="L65" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="C66" t="s">
+        <v>69</v>
+      </c>
+      <c r="D66" t="s">
+        <v>115</v>
+      </c>
+      <c r="E66" t="s">
+        <v>160</v>
+      </c>
+      <c r="F66" t="s">
+        <v>165</v>
+      </c>
+      <c r="G66" t="s">
+        <v>167</v>
+      </c>
+      <c r="H66" t="s">
+        <v>181</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="K66" t="s">
+        <v>258</v>
+      </c>
+      <c r="L66" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
         <v>16</v>
       </c>
-      <c r="J2" t="s">
+      <c r="C67" t="s">
+        <v>70</v>
+      </c>
+      <c r="D67" t="s">
+        <v>116</v>
+      </c>
+      <c r="E67" t="s">
+        <v>159</v>
+      </c>
+      <c r="F67" t="s">
+        <v>165</v>
+      </c>
+      <c r="G67" t="s">
+        <v>168</v>
+      </c>
+      <c r="H67" t="s">
+        <v>182</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="K67" t="s">
+        <v>258</v>
+      </c>
+      <c r="L67" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
         <v>17</v>
       </c>
-      <c r="K2" t="s">
+      <c r="C68" t="s">
+        <v>71</v>
+      </c>
+      <c r="D68" t="s">
+        <v>117</v>
+      </c>
+      <c r="E68" t="s">
+        <v>159</v>
+      </c>
+      <c r="F68" t="s">
+        <v>165</v>
+      </c>
+      <c r="G68" t="s">
+        <v>168</v>
+      </c>
+      <c r="H68" t="s">
+        <v>178</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="K68" t="s">
+        <v>258</v>
+      </c>
+      <c r="L68" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
         <v>18</v>
+      </c>
+      <c r="C69" t="s">
+        <v>72</v>
+      </c>
+      <c r="D69" t="s">
+        <v>118</v>
+      </c>
+      <c r="E69" t="s">
+        <v>159</v>
+      </c>
+      <c r="F69" t="s">
+        <v>165</v>
+      </c>
+      <c r="G69" t="s">
+        <v>167</v>
+      </c>
+      <c r="H69" t="s">
+        <v>178</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="K69" t="s">
+        <v>258</v>
+      </c>
+      <c r="L69" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>19</v>
+      </c>
+      <c r="C70" t="s">
+        <v>73</v>
+      </c>
+      <c r="D70" t="s">
+        <v>119</v>
+      </c>
+      <c r="E70" t="s">
+        <v>159</v>
+      </c>
+      <c r="F70" t="s">
+        <v>165</v>
+      </c>
+      <c r="G70" t="s">
+        <v>168</v>
+      </c>
+      <c r="H70" t="s">
+        <v>183</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="K70" t="s">
+        <v>258</v>
+      </c>
+      <c r="L70" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>15</v>
+      </c>
+      <c r="C71" t="s">
+        <v>74</v>
+      </c>
+      <c r="D71" t="s">
+        <v>120</v>
+      </c>
+      <c r="E71" t="s">
+        <v>159</v>
+      </c>
+      <c r="F71" t="s">
+        <v>165</v>
+      </c>
+      <c r="G71" t="s">
+        <v>169</v>
+      </c>
+      <c r="H71" t="s">
+        <v>184</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="K71" t="s">
+        <v>258</v>
+      </c>
+      <c r="L71" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>20</v>
+      </c>
+      <c r="C72" t="s">
+        <v>75</v>
+      </c>
+      <c r="D72" t="s">
+        <v>121</v>
+      </c>
+      <c r="E72" t="s">
+        <v>159</v>
+      </c>
+      <c r="F72" t="s">
+        <v>165</v>
+      </c>
+      <c r="G72" t="s">
+        <v>168</v>
+      </c>
+      <c r="H72" t="s">
+        <v>180</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="K72" t="s">
+        <v>258</v>
+      </c>
+      <c r="L72" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>21</v>
+      </c>
+      <c r="C73" t="s">
+        <v>76</v>
+      </c>
+      <c r="D73" t="s">
+        <v>122</v>
+      </c>
+      <c r="E73" t="s">
+        <v>159</v>
+      </c>
+      <c r="F73" t="s">
+        <v>165</v>
+      </c>
+      <c r="G73" t="s">
+        <v>166</v>
+      </c>
+      <c r="H73" t="s">
+        <v>185</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="K73" t="s">
+        <v>258</v>
+      </c>
+      <c r="L73" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>22</v>
+      </c>
+      <c r="C74" t="s">
+        <v>67</v>
+      </c>
+      <c r="D74" t="s">
+        <v>123</v>
+      </c>
+      <c r="E74" t="s">
+        <v>159</v>
+      </c>
+      <c r="F74" t="s">
+        <v>165</v>
+      </c>
+      <c r="G74" t="s">
+        <v>166</v>
+      </c>
+      <c r="H74" t="s">
+        <v>186</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="K74" t="s">
+        <v>258</v>
+      </c>
+      <c r="L74" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>23</v>
+      </c>
+      <c r="C75" t="s">
+        <v>77</v>
+      </c>
+      <c r="D75" t="s">
+        <v>124</v>
+      </c>
+      <c r="E75" t="s">
+        <v>159</v>
+      </c>
+      <c r="F75" t="s">
+        <v>165</v>
+      </c>
+      <c r="G75" t="s">
+        <v>169</v>
+      </c>
+      <c r="H75" t="s">
+        <v>187</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="J75" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="K75" t="s">
+        <v>258</v>
+      </c>
+      <c r="L75" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>15</v>
+      </c>
+      <c r="C76" t="s">
+        <v>78</v>
+      </c>
+      <c r="D76" t="s">
+        <v>125</v>
+      </c>
+      <c r="E76" t="s">
+        <v>159</v>
+      </c>
+      <c r="F76" t="s">
+        <v>165</v>
+      </c>
+      <c r="G76" t="s">
+        <v>168</v>
+      </c>
+      <c r="H76" t="s">
+        <v>188</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="K76" t="s">
+        <v>258</v>
+      </c>
+      <c r="L76" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>24</v>
+      </c>
+      <c r="C77" t="s">
+        <v>79</v>
+      </c>
+      <c r="D77" t="s">
+        <v>126</v>
+      </c>
+      <c r="E77" t="s">
+        <v>159</v>
+      </c>
+      <c r="F77" t="s">
+        <v>165</v>
+      </c>
+      <c r="G77" t="s">
+        <v>167</v>
+      </c>
+      <c r="H77" t="s">
+        <v>178</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="J77" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="K77" t="s">
+        <v>258</v>
+      </c>
+      <c r="L77" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>25</v>
+      </c>
+      <c r="C78" t="s">
+        <v>80</v>
+      </c>
+      <c r="D78" t="s">
+        <v>127</v>
+      </c>
+      <c r="E78" t="s">
+        <v>159</v>
+      </c>
+      <c r="F78" t="s">
+        <v>165</v>
+      </c>
+      <c r="G78" t="s">
+        <v>170</v>
+      </c>
+      <c r="H78" t="s">
+        <v>187</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="K78" t="s">
+        <v>258</v>
+      </c>
+      <c r="L78" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>26</v>
+      </c>
+      <c r="C79" t="s">
+        <v>81</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79" t="s">
+        <v>159</v>
+      </c>
+      <c r="F79" t="s">
+        <v>165</v>
+      </c>
+      <c r="G79" t="s">
+        <v>165</v>
+      </c>
+      <c r="H79" t="s">
+        <v>189</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="J79" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="K79" t="s">
+        <v>258</v>
+      </c>
+      <c r="L79" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>27</v>
+      </c>
+      <c r="C80" t="s">
+        <v>82</v>
+      </c>
+      <c r="D80" t="s">
+        <v>128</v>
+      </c>
+      <c r="E80" t="s">
+        <v>159</v>
+      </c>
+      <c r="F80" t="s">
+        <v>165</v>
+      </c>
+      <c r="G80" t="s">
+        <v>171</v>
+      </c>
+      <c r="H80" t="s">
+        <v>186</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="K80" t="s">
+        <v>258</v>
+      </c>
+      <c r="L80" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>28</v>
+      </c>
+      <c r="C81" t="s">
+        <v>83</v>
+      </c>
+      <c r="D81" t="s">
+        <v>129</v>
+      </c>
+      <c r="E81" t="s">
+        <v>159</v>
+      </c>
+      <c r="F81" t="s">
+        <v>165</v>
+      </c>
+      <c r="G81" t="s">
+        <v>172</v>
+      </c>
+      <c r="H81" t="s">
+        <v>190</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="J81" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="K81" t="s">
+        <v>258</v>
+      </c>
+      <c r="L81" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>29</v>
+      </c>
+      <c r="C82" t="s">
+        <v>84</v>
+      </c>
+      <c r="D82" t="s">
+        <v>130</v>
+      </c>
+      <c r="E82" t="s">
+        <v>159</v>
+      </c>
+      <c r="F82" t="s">
+        <v>165</v>
+      </c>
+      <c r="G82" t="s">
+        <v>173</v>
+      </c>
+      <c r="H82" t="s">
+        <v>191</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="J82" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="K82" t="s">
+        <v>258</v>
+      </c>
+      <c r="L82" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>30</v>
+      </c>
+      <c r="C83" t="s">
+        <v>85</v>
+      </c>
+      <c r="D83" t="s">
+        <v>131</v>
+      </c>
+      <c r="E83" t="s">
+        <v>159</v>
+      </c>
+      <c r="F83" t="s">
+        <v>165</v>
+      </c>
+      <c r="G83" t="s">
+        <v>168</v>
+      </c>
+      <c r="H83" t="s">
+        <v>192</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="J83" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="K83" t="s">
+        <v>258</v>
+      </c>
+      <c r="L83" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>31</v>
+      </c>
+      <c r="C84" t="s">
+        <v>86</v>
+      </c>
+      <c r="D84" t="s">
+        <v>132</v>
+      </c>
+      <c r="E84" t="s">
+        <v>159</v>
+      </c>
+      <c r="F84" t="s">
+        <v>165</v>
+      </c>
+      <c r="G84" t="s">
+        <v>168</v>
+      </c>
+      <c r="H84" t="s">
+        <v>193</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="J84" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="K84" t="s">
+        <v>258</v>
+      </c>
+      <c r="L84" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>32</v>
+      </c>
+      <c r="C85" t="s">
+        <v>87</v>
+      </c>
+      <c r="D85" t="s">
+        <v>133</v>
+      </c>
+      <c r="E85" t="s">
+        <v>159</v>
+      </c>
+      <c r="F85" t="s">
+        <v>165</v>
+      </c>
+      <c r="G85" t="s">
+        <v>168</v>
+      </c>
+      <c r="H85" t="s">
+        <v>183</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="J85" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="K85" t="s">
+        <v>258</v>
+      </c>
+      <c r="L85" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>33</v>
+      </c>
+      <c r="C86" t="s">
+        <v>88</v>
+      </c>
+      <c r="D86" t="s">
+        <v>134</v>
+      </c>
+      <c r="E86" t="s">
+        <v>161</v>
+      </c>
+      <c r="F86" t="s">
+        <v>165</v>
+      </c>
+      <c r="G86" t="s">
+        <v>166</v>
+      </c>
+      <c r="H86" t="s">
+        <v>194</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="J86" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="K86" t="s">
+        <v>258</v>
+      </c>
+      <c r="L86" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>34</v>
+      </c>
+      <c r="C87" t="s">
+        <v>89</v>
+      </c>
+      <c r="D87" t="s">
+        <v>135</v>
+      </c>
+      <c r="E87" t="s">
+        <v>159</v>
+      </c>
+      <c r="F87" t="s">
+        <v>165</v>
+      </c>
+      <c r="G87" t="s">
+        <v>165</v>
+      </c>
+      <c r="H87" t="s">
+        <v>180</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="J87" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="K87" t="s">
+        <v>258</v>
+      </c>
+      <c r="L87" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>35</v>
+      </c>
+      <c r="C88" t="s">
+        <v>90</v>
+      </c>
+      <c r="D88" t="s">
+        <v>136</v>
+      </c>
+      <c r="E88" t="s">
+        <v>159</v>
+      </c>
+      <c r="F88" t="s">
+        <v>165</v>
+      </c>
+      <c r="G88" t="s">
+        <v>169</v>
+      </c>
+      <c r="H88" t="s">
+        <v>195</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="J88" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="K88" t="s">
+        <v>258</v>
+      </c>
+      <c r="L88" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>36</v>
+      </c>
+      <c r="C89" t="s">
+        <v>91</v>
+      </c>
+      <c r="D89" t="s">
+        <v>137</v>
+      </c>
+      <c r="E89" t="s">
+        <v>159</v>
+      </c>
+      <c r="F89" t="s">
+        <v>165</v>
+      </c>
+      <c r="G89" t="s">
+        <v>167</v>
+      </c>
+      <c r="H89" t="s">
+        <v>195</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="J89" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="K89" t="s">
+        <v>258</v>
+      </c>
+      <c r="L89" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>37</v>
+      </c>
+      <c r="C90" t="s">
+        <v>92</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90" t="s">
+        <v>159</v>
+      </c>
+      <c r="F90" t="s">
+        <v>165</v>
+      </c>
+      <c r="G90" t="s">
+        <v>165</v>
+      </c>
+      <c r="H90" t="s">
+        <v>196</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="J90" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="K90" t="s">
+        <v>258</v>
+      </c>
+      <c r="L90" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>38</v>
+      </c>
+      <c r="C91" t="s">
+        <v>69</v>
+      </c>
+      <c r="D91" t="s">
+        <v>138</v>
+      </c>
+      <c r="E91" t="s">
+        <v>160</v>
+      </c>
+      <c r="F91" t="s">
+        <v>165</v>
+      </c>
+      <c r="G91" t="s">
+        <v>171</v>
+      </c>
+      <c r="H91" t="s">
+        <v>197</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="J91" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="K91" t="s">
+        <v>258</v>
+      </c>
+      <c r="L91" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>39</v>
+      </c>
+      <c r="C92" t="s">
+        <v>93</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92" t="s">
+        <v>162</v>
+      </c>
+      <c r="F92" t="s">
+        <v>165</v>
+      </c>
+      <c r="G92" t="s">
+        <v>165</v>
+      </c>
+      <c r="H92" t="s">
+        <v>198</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="J92" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="K92" t="s">
+        <v>258</v>
+      </c>
+      <c r="L92" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>40</v>
+      </c>
+      <c r="C93" t="s">
+        <v>94</v>
+      </c>
+      <c r="D93" t="s">
+        <v>139</v>
+      </c>
+      <c r="E93" t="s">
+        <v>159</v>
+      </c>
+      <c r="F93" t="s">
+        <v>165</v>
+      </c>
+      <c r="G93" t="s">
+        <v>171</v>
+      </c>
+      <c r="H93" t="s">
+        <v>195</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="J93" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="K93" t="s">
+        <v>258</v>
+      </c>
+      <c r="L93" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>41</v>
+      </c>
+      <c r="C94" t="s">
+        <v>95</v>
+      </c>
+      <c r="D94" t="s">
+        <v>140</v>
+      </c>
+      <c r="E94" t="s">
+        <v>159</v>
+      </c>
+      <c r="F94" t="s">
+        <v>165</v>
+      </c>
+      <c r="G94" t="s">
+        <v>166</v>
+      </c>
+      <c r="H94" t="s">
+        <v>178</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="J94" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="K94" t="s">
+        <v>258</v>
+      </c>
+      <c r="L94" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>42</v>
+      </c>
+      <c r="C95" t="s">
+        <v>96</v>
+      </c>
+      <c r="D95" t="s">
+        <v>141</v>
+      </c>
+      <c r="E95" t="s">
+        <v>159</v>
+      </c>
+      <c r="F95" t="s">
+        <v>165</v>
+      </c>
+      <c r="G95" t="s">
+        <v>166</v>
+      </c>
+      <c r="H95" t="s">
+        <v>192</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="J95" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="K95" t="s">
+        <v>258</v>
+      </c>
+      <c r="L95" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>43</v>
+      </c>
+      <c r="C96" t="s">
+        <v>69</v>
+      </c>
+      <c r="D96" t="s">
+        <v>142</v>
+      </c>
+      <c r="E96" t="s">
+        <v>159</v>
+      </c>
+      <c r="F96" t="s">
+        <v>165</v>
+      </c>
+      <c r="G96" t="s">
+        <v>174</v>
+      </c>
+      <c r="H96" t="s">
+        <v>181</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="J96" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="K96" t="s">
+        <v>258</v>
+      </c>
+      <c r="L96" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>44</v>
+      </c>
+      <c r="C97" t="s">
+        <v>67</v>
+      </c>
+      <c r="D97" t="s">
+        <v>143</v>
+      </c>
+      <c r="E97" t="s">
+        <v>159</v>
+      </c>
+      <c r="F97" t="s">
+        <v>165</v>
+      </c>
+      <c r="G97" t="s">
+        <v>168</v>
+      </c>
+      <c r="H97" t="s">
+        <v>193</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="J97" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="K97" t="s">
+        <v>258</v>
+      </c>
+      <c r="L97" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>45</v>
+      </c>
+      <c r="C98" t="s">
+        <v>72</v>
+      </c>
+      <c r="D98" t="s">
+        <v>119</v>
+      </c>
+      <c r="E98" t="s">
+        <v>159</v>
+      </c>
+      <c r="F98" t="s">
+        <v>165</v>
+      </c>
+      <c r="G98" t="s">
+        <v>165</v>
+      </c>
+      <c r="H98" t="s">
+        <v>180</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="J98" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="K98" t="s">
+        <v>258</v>
+      </c>
+      <c r="L98" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>46</v>
+      </c>
+      <c r="C99" t="s">
+        <v>71</v>
+      </c>
+      <c r="D99" t="s">
+        <v>144</v>
+      </c>
+      <c r="E99" t="s">
+        <v>159</v>
+      </c>
+      <c r="F99" t="s">
+        <v>165</v>
+      </c>
+      <c r="G99" t="s">
+        <v>168</v>
+      </c>
+      <c r="H99" t="s">
+        <v>180</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="J99" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="K99" t="s">
+        <v>258</v>
+      </c>
+      <c r="L99" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>47</v>
+      </c>
+      <c r="C100" t="s">
+        <v>87</v>
+      </c>
+      <c r="D100" t="s">
+        <v>145</v>
+      </c>
+      <c r="E100" t="s">
+        <v>159</v>
+      </c>
+      <c r="F100" t="s">
+        <v>165</v>
+      </c>
+      <c r="G100" t="s">
+        <v>169</v>
+      </c>
+      <c r="H100" t="s">
+        <v>180</v>
+      </c>
+      <c r="I100" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="J100" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="K100" t="s">
+        <v>258</v>
+      </c>
+      <c r="L100" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>38</v>
+      </c>
+      <c r="C101" t="s">
+        <v>97</v>
+      </c>
+      <c r="D101" t="s">
+        <v>146</v>
+      </c>
+      <c r="E101" t="s">
+        <v>159</v>
+      </c>
+      <c r="F101" t="s">
+        <v>165</v>
+      </c>
+      <c r="G101" t="s">
+        <v>167</v>
+      </c>
+      <c r="H101" t="s">
+        <v>190</v>
+      </c>
+      <c r="I101" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="J101" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="K101" t="s">
+        <v>258</v>
+      </c>
+      <c r="L101" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>48</v>
+      </c>
+      <c r="C102" t="s">
+        <v>98</v>
+      </c>
+      <c r="D102" t="s">
+        <v>147</v>
+      </c>
+      <c r="E102" t="s">
+        <v>159</v>
+      </c>
+      <c r="F102" t="s">
+        <v>165</v>
+      </c>
+      <c r="G102" t="s">
+        <v>165</v>
+      </c>
+      <c r="H102" t="s">
+        <v>178</v>
+      </c>
+      <c r="I102" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="J102" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="K102" t="s">
+        <v>258</v>
+      </c>
+      <c r="L102" t="s">
+        <v>259</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="I2" r:id="rId1"/>
+    <hyperlink ref="J2" r:id="rId2"/>
+    <hyperlink ref="I3" r:id="rId3"/>
+    <hyperlink ref="J3" r:id="rId4"/>
+    <hyperlink ref="I4" r:id="rId5"/>
+    <hyperlink ref="J4" r:id="rId6"/>
+    <hyperlink ref="I5" r:id="rId7"/>
+    <hyperlink ref="J5" r:id="rId8"/>
+    <hyperlink ref="I6" r:id="rId9"/>
+    <hyperlink ref="J6" r:id="rId10"/>
+    <hyperlink ref="I7" r:id="rId11"/>
+    <hyperlink ref="J7" r:id="rId12"/>
+    <hyperlink ref="I8" r:id="rId13"/>
+    <hyperlink ref="J8" r:id="rId14"/>
+    <hyperlink ref="I9" r:id="rId15"/>
+    <hyperlink ref="J9" r:id="rId16"/>
+    <hyperlink ref="I10" r:id="rId17"/>
+    <hyperlink ref="J10" r:id="rId18"/>
+    <hyperlink ref="I11" r:id="rId19"/>
+    <hyperlink ref="J11" r:id="rId20"/>
+    <hyperlink ref="I12" r:id="rId21"/>
+    <hyperlink ref="J12" r:id="rId22"/>
+    <hyperlink ref="I13" r:id="rId23"/>
+    <hyperlink ref="J13" r:id="rId24"/>
+    <hyperlink ref="I14" r:id="rId25"/>
+    <hyperlink ref="J14" r:id="rId26"/>
+    <hyperlink ref="I15" r:id="rId27"/>
+    <hyperlink ref="J15" r:id="rId28"/>
+    <hyperlink ref="I16" r:id="rId29"/>
+    <hyperlink ref="J16" r:id="rId30"/>
+    <hyperlink ref="I17" r:id="rId31"/>
+    <hyperlink ref="J17" r:id="rId32"/>
+    <hyperlink ref="I18" r:id="rId33"/>
+    <hyperlink ref="J18" r:id="rId34"/>
+    <hyperlink ref="I19" r:id="rId35"/>
+    <hyperlink ref="J19" r:id="rId36"/>
+    <hyperlink ref="I20" r:id="rId37"/>
+    <hyperlink ref="J20" r:id="rId38"/>
+    <hyperlink ref="I21" r:id="rId39"/>
+    <hyperlink ref="J21" r:id="rId40"/>
+    <hyperlink ref="I22" r:id="rId41"/>
+    <hyperlink ref="J22" r:id="rId42"/>
+    <hyperlink ref="I23" r:id="rId43"/>
+    <hyperlink ref="J23" r:id="rId44"/>
+    <hyperlink ref="I24" r:id="rId45"/>
+    <hyperlink ref="J24" r:id="rId46"/>
+    <hyperlink ref="I25" r:id="rId47"/>
+    <hyperlink ref="J25" r:id="rId48"/>
+    <hyperlink ref="I26" r:id="rId49"/>
+    <hyperlink ref="J26" r:id="rId50"/>
+    <hyperlink ref="I27" r:id="rId51"/>
+    <hyperlink ref="J27" r:id="rId52"/>
+    <hyperlink ref="I28" r:id="rId53"/>
+    <hyperlink ref="J28" r:id="rId54"/>
+    <hyperlink ref="I29" r:id="rId55"/>
+    <hyperlink ref="J29" r:id="rId56"/>
+    <hyperlink ref="I30" r:id="rId57"/>
+    <hyperlink ref="J30" r:id="rId58"/>
+    <hyperlink ref="I31" r:id="rId59"/>
+    <hyperlink ref="J31" r:id="rId60"/>
+    <hyperlink ref="I32" r:id="rId61"/>
+    <hyperlink ref="J32" r:id="rId62"/>
+    <hyperlink ref="I33" r:id="rId63"/>
+    <hyperlink ref="J33" r:id="rId64"/>
+    <hyperlink ref="I34" r:id="rId65"/>
+    <hyperlink ref="J34" r:id="rId66"/>
+    <hyperlink ref="I35" r:id="rId67"/>
+    <hyperlink ref="J35" r:id="rId68"/>
+    <hyperlink ref="I36" r:id="rId69"/>
+    <hyperlink ref="J36" r:id="rId70"/>
+    <hyperlink ref="I37" r:id="rId71"/>
+    <hyperlink ref="J37" r:id="rId72"/>
+    <hyperlink ref="I38" r:id="rId73"/>
+    <hyperlink ref="J38" r:id="rId74"/>
+    <hyperlink ref="I39" r:id="rId75"/>
+    <hyperlink ref="J39" r:id="rId76"/>
+    <hyperlink ref="I40" r:id="rId77"/>
+    <hyperlink ref="J40" r:id="rId78"/>
+    <hyperlink ref="I41" r:id="rId79"/>
+    <hyperlink ref="J41" r:id="rId80"/>
+    <hyperlink ref="I42" r:id="rId81"/>
+    <hyperlink ref="J42" r:id="rId82"/>
+    <hyperlink ref="I43" r:id="rId83"/>
+    <hyperlink ref="J43" r:id="rId84"/>
+    <hyperlink ref="I44" r:id="rId85"/>
+    <hyperlink ref="J44" r:id="rId86"/>
+    <hyperlink ref="I45" r:id="rId87"/>
+    <hyperlink ref="J45" r:id="rId88"/>
+    <hyperlink ref="I46" r:id="rId89"/>
+    <hyperlink ref="J46" r:id="rId90"/>
+    <hyperlink ref="I47" r:id="rId91"/>
+    <hyperlink ref="J47" r:id="rId92"/>
+    <hyperlink ref="I48" r:id="rId93"/>
+    <hyperlink ref="J48" r:id="rId94"/>
+    <hyperlink ref="I49" r:id="rId95"/>
+    <hyperlink ref="J49" r:id="rId96"/>
+    <hyperlink ref="I50" r:id="rId97"/>
+    <hyperlink ref="J50" r:id="rId98"/>
+    <hyperlink ref="I51" r:id="rId99"/>
+    <hyperlink ref="J51" r:id="rId100"/>
+    <hyperlink ref="I52" r:id="rId101"/>
+    <hyperlink ref="J52" r:id="rId102"/>
+    <hyperlink ref="I53" r:id="rId103"/>
+    <hyperlink ref="J53" r:id="rId104"/>
+    <hyperlink ref="I54" r:id="rId105"/>
+    <hyperlink ref="J54" r:id="rId106"/>
+    <hyperlink ref="I55" r:id="rId107"/>
+    <hyperlink ref="J55" r:id="rId108"/>
+    <hyperlink ref="I56" r:id="rId109"/>
+    <hyperlink ref="J56" r:id="rId110"/>
+    <hyperlink ref="I57" r:id="rId111"/>
+    <hyperlink ref="J57" r:id="rId112"/>
+    <hyperlink ref="I58" r:id="rId113"/>
+    <hyperlink ref="J58" r:id="rId114"/>
+    <hyperlink ref="I59" r:id="rId115"/>
+    <hyperlink ref="J59" r:id="rId116"/>
+    <hyperlink ref="I60" r:id="rId117"/>
+    <hyperlink ref="J60" r:id="rId118"/>
+    <hyperlink ref="I61" r:id="rId119"/>
+    <hyperlink ref="J61" r:id="rId120"/>
+    <hyperlink ref="I62" r:id="rId121"/>
+    <hyperlink ref="J62" r:id="rId122"/>
+    <hyperlink ref="I63" r:id="rId123"/>
+    <hyperlink ref="J63" r:id="rId124"/>
+    <hyperlink ref="I64" r:id="rId125"/>
+    <hyperlink ref="J64" r:id="rId126"/>
+    <hyperlink ref="I65" r:id="rId127"/>
+    <hyperlink ref="J65" r:id="rId128"/>
+    <hyperlink ref="I66" r:id="rId129"/>
+    <hyperlink ref="J66" r:id="rId130"/>
+    <hyperlink ref="I67" r:id="rId131"/>
+    <hyperlink ref="J67" r:id="rId132"/>
+    <hyperlink ref="I68" r:id="rId133"/>
+    <hyperlink ref="J68" r:id="rId134"/>
+    <hyperlink ref="I69" r:id="rId135"/>
+    <hyperlink ref="J69" r:id="rId136"/>
+    <hyperlink ref="I70" r:id="rId137"/>
+    <hyperlink ref="J70" r:id="rId138"/>
+    <hyperlink ref="I71" r:id="rId139"/>
+    <hyperlink ref="J71" r:id="rId140"/>
+    <hyperlink ref="I72" r:id="rId141"/>
+    <hyperlink ref="J72" r:id="rId142"/>
+    <hyperlink ref="I73" r:id="rId143"/>
+    <hyperlink ref="J73" r:id="rId144"/>
+    <hyperlink ref="I74" r:id="rId145"/>
+    <hyperlink ref="J74" r:id="rId146"/>
+    <hyperlink ref="I75" r:id="rId147"/>
+    <hyperlink ref="J75" r:id="rId148"/>
+    <hyperlink ref="I76" r:id="rId149"/>
+    <hyperlink ref="J76" r:id="rId150"/>
+    <hyperlink ref="I77" r:id="rId151"/>
+    <hyperlink ref="J77" r:id="rId152"/>
+    <hyperlink ref="I78" r:id="rId153"/>
+    <hyperlink ref="J78" r:id="rId154"/>
+    <hyperlink ref="I79" r:id="rId155"/>
+    <hyperlink ref="J79" r:id="rId156"/>
+    <hyperlink ref="I80" r:id="rId157"/>
+    <hyperlink ref="J80" r:id="rId158"/>
+    <hyperlink ref="I81" r:id="rId159"/>
+    <hyperlink ref="J81" r:id="rId160"/>
+    <hyperlink ref="I82" r:id="rId161"/>
+    <hyperlink ref="J82" r:id="rId162"/>
+    <hyperlink ref="I83" r:id="rId163"/>
+    <hyperlink ref="J83" r:id="rId164"/>
+    <hyperlink ref="I84" r:id="rId165"/>
+    <hyperlink ref="J84" r:id="rId166"/>
+    <hyperlink ref="I85" r:id="rId167"/>
+    <hyperlink ref="J85" r:id="rId168"/>
+    <hyperlink ref="I86" r:id="rId169"/>
+    <hyperlink ref="J86" r:id="rId170"/>
+    <hyperlink ref="I87" r:id="rId171"/>
+    <hyperlink ref="J87" r:id="rId172"/>
+    <hyperlink ref="I88" r:id="rId173"/>
+    <hyperlink ref="J88" r:id="rId174"/>
+    <hyperlink ref="I89" r:id="rId175"/>
+    <hyperlink ref="J89" r:id="rId176"/>
+    <hyperlink ref="I90" r:id="rId177"/>
+    <hyperlink ref="J90" r:id="rId178"/>
+    <hyperlink ref="I91" r:id="rId179"/>
+    <hyperlink ref="J91" r:id="rId180"/>
+    <hyperlink ref="I92" r:id="rId181"/>
+    <hyperlink ref="J92" r:id="rId182"/>
+    <hyperlink ref="I93" r:id="rId183"/>
+    <hyperlink ref="J93" r:id="rId184"/>
+    <hyperlink ref="I94" r:id="rId185"/>
+    <hyperlink ref="J94" r:id="rId186"/>
+    <hyperlink ref="I95" r:id="rId187"/>
+    <hyperlink ref="J95" r:id="rId188"/>
+    <hyperlink ref="I96" r:id="rId189"/>
+    <hyperlink ref="J96" r:id="rId190"/>
+    <hyperlink ref="I97" r:id="rId191"/>
+    <hyperlink ref="J97" r:id="rId192"/>
+    <hyperlink ref="I98" r:id="rId193"/>
+    <hyperlink ref="J98" r:id="rId194"/>
+    <hyperlink ref="I99" r:id="rId195"/>
+    <hyperlink ref="J99" r:id="rId196"/>
+    <hyperlink ref="I100" r:id="rId197"/>
+    <hyperlink ref="J100" r:id="rId198"/>
+    <hyperlink ref="I101" r:id="rId199"/>
+    <hyperlink ref="J101" r:id="rId200"/>
+    <hyperlink ref="I102" r:id="rId201"/>
+    <hyperlink ref="J102" r:id="rId202"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
